--- a/answer.xlsx
+++ b/answer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,41 +468,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Автосервис Автоклиника | Слесарный ремонт, сход-развал, кузовной ремонт Лихоборы</t>
+          <t>АМД | Автосервис Волковская | Развал - схождение, замена тормозных дисков, замена масла</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BA%D0%BB%D0%B8%D0%BD%D0%B8%D0%BA%D0%B0+%7C+%D0%A1%D0%BB%D0%B5%D1%81%D0%B0%D1%80%D0%BD%D1%8B%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D1%81%D1%85%D0%BE%D0%B4-%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%9B%D0%B8%D1%85%D0%BE%D0%B1%D0%BE%D1%80%D1%8B/data=!4m7!3m6!1s0x46b537c0ba47e49b:0x39641be576344027!8m2!3d55.8465458!4d37.539781!16s%2Fg%2F1ptyxgntf!19sChIJm-RHusA3tUYRJ0A0duUbZDk?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%9C%D0%94+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%92%D0%BE%D0%BB%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB+-+%D1%81%D1%85%D0%BE%D0%B6%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D1%82%D0%BE%D1%80%D0%BC%D0%BE%D0%B7%D0%BD%D1%8B%D1%85+%D0%B4%D0%B8%D1%81%D0%BA%D0%BE%D0%B2,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0/data=!4m7!3m6!1s0x46963016b982ce2b:0xdbd1bef8eaa9b684!8m2!3d59.8871049!4d30.3423711!16s%2Fg%2F11g8v1q064!19sChIJK86CuRYwlkYRhLap6vi-0ds?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Автосервис Автоклиника | Слесарный ремонт, сход-развал, кузовной ремонт Лихоборы, Автомоторная ул., 1/3, Москва, 125438</t>
+          <t>АМД | Автосервис Волковская | Развал - схождение, замена тормозных дисков, замена масла, Заставская ул., 4, 1 этаж, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://autoclinica.ru/</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>https://auto-amd.ru/?utm_source=gmb</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'9813371903'}</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Автосервис Москва</t>
+          <t>Автосервис BS GARAGE | ТО, ремонт двигателя, кузовной ремонт Заставская</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B0/data=!4m7!3m6!1s0x414ab55a6d96ec05:0x250bfae99dab08be!8m2!3d55.735648!4d37.77041!16s%2Fg%2F11fs692r7k!19sChIJBeyWbVq1SkERvgirnen6CyU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+BS+GARAGE+%7C+%D0%A2%D0%9E,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%97%D0%B0%D1%81%D1%82%D0%B0%D0%B2%D1%81%D0%BA%D0%B0%D1%8F/data=!4m7!3m6!1s0x469631d57f7ad367:0x7347984822564dd3!8m2!3d59.8894503!4d30.3252121!16s%2Fg%2F1tnpd2n_!19sChIJZ9N6f9UxlkYR001WIkiYR3M?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Автосервис Москва, Кусковский туп., 1 с2, Москва, 111398</t>
+          <t>Автосервис BS GARAGE | ТО, ремонт двигателя, кузовной ремонт Заставская, Заставская ул., 15Д, Санкт-Петербург, 192019</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -512,147 +520,155 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Автосервис TURBO-MSK Автотехцентр, диагностика авто Москва</t>
+          <t>Автоцентр "Доктор Железных Коней" на метро Московские Ворота Ремонт Подвески ТО Сход-Развал• Замена Масла• Шиномонтаж •</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+TURBO-MSK+%D0%90%D0%B2%D1%82%D0%BE%D1%82%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80,+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%B0%D0%B2%D1%82%D0%BE+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B0/data=!4m7!3m6!1s0x414ab545276434ff:0x209c81c530efe2bf!8m2!3d55.8119713!4d37.8339313!16s%2Fg%2F11fglblrvb!19sChIJ_zRkJ0W1SkERv-LvMMWBnCA?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%86%D0%B5%D0%BD%D1%82%D1%80+%22%D0%94%D0%BE%D0%BA%D1%82%D0%BE%D1%80+%D0%96%D0%B5%D0%BB%D0%B5%D0%B7%D0%BD%D1%8B%D1%85+%D0%9A%D0%BE%D0%BD%D0%B5%D0%B9%22+%D0%BD%D0%B0+%D0%BC%D0%B5%D1%82%D1%80%D0%BE+%D0%9C%D0%BE%D1%81%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B5+%D0%92%D0%BE%D1%80%D0%BE%D1%82%D0%B0+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%9F%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8+%D0%A2%D0%9E+%D0%A1%D1%85%D0%BE%D0%B4-%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB%E2%80%A2+%D0%97%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%9C%D0%B0%D1%81%D0%BB%D0%B0%E2%80%A2+%D0%A8%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6+%E2%80%A2/data=!4m7!3m6!1s0x46962519c517e751:0x40d7e808c46fcac4!8m2!3d59.895638!4d30.3105898!16s%2Fg%2F11cn5ppmwj!19sChIJUecXxRkllkYRxMpvxAjo10A?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Автосервис TURBO-MSK Автотехцентр, диагностика авто Москва, Щёлковское ш., 100к1, Москва, 105523</t>
+          <t>Автоцентр "Доктор Железных Коней" на метро Московские Ворота Ремонт Подвески ТО Сход-Развал• Замена Масла• Шиномонтаж •, Малая Митрофаньевская ул., 10к3, 1 этаж, Санкт-Петербург, 198500</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://autocarmax.ru/</t>
+          <t>https://autohorses.ru/?utm_source=gmb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'9959018188'}</t>
+          <t>{'8124131010', '9910386143'}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'info@autohorses.ru'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Автосервис AFTO-сервис на метро Беговая | замена масла, кузовной ремонт</t>
+          <t>Автосервис ASG Auto (АСГ Авто) | Развал-схождение, шиномонтаж Невский район</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+AFTO-%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%BD%D0%B0+%D0%BC%D0%B5%D1%82%D1%80%D0%BE+%D0%91%D0%B5%D0%B3%D0%BE%D0%B2%D0%B0%D1%8F+%7C+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x46b54b8227d415b3:0xaefda257adbda732!8m2!3d55.7809791!4d37.5434684!16s%2Fg%2F1tkml6h7!19sChIJsxXUJ4JLtUYRMqe9rVei_a4?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+ASG+Auto+%28%D0%90%D0%A1%D0%93+%D0%90%D0%B2%D1%82%D0%BE%29+%7C+%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB-%D1%81%D1%85%D0%BE%D0%B6%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6+%D0%9D%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD/data=!4m7!3m6!1s0x469631d4fdf900f3:0x95828cd43b562c2a!8m2!3d59.9016212!4d30.3868065!16s%2Fg%2F1pp2x9d65!19sChIJ8wD5_dQxlkYRKixWO9SMgpU?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Автосервис AFTO-сервис на метро Беговая | замена масла, кузовной ремонт, ул. Поликарпова, 27, строение 3, Москва, 123007</t>
+          <t>Автосервис ASG Auto (АСГ Авто) | Развал-схождение, шиномонтаж Невский район, ул. Книпович, 21, Санкт-Петербург, 192019</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://afto-service.ru/</t>
+          <t>https://www.asgauto.ru/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'4951509003'}</t>
+          <t>{'8129935866'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'afto@afto-service.ru', 'zakaz@afto-service.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Свой Мастер | Автосервис Минская | Компьютерная диагностика авто, заправка кондиционера</t>
+          <t>Автосервис "ЦАТ" на Салова 70</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A1%D0%B2%D0%BE%D0%B9+%D0%9C%D0%B0%D1%81%D1%82%D0%B5%D1%80+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%B8%D0%BD%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%9A%D0%BE%D0%BC%D0%BF%D1%8C%D1%8E%D1%82%D0%B5%D1%80%D0%BD%D0%B0%D1%8F+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%B0%D0%B2%D1%82%D0%BE,+%D0%B7%D0%B0%D0%BF%D1%80%D0%B0%D0%B2%D0%BA%D0%B0+%D0%BA%D0%BE%D0%BD%D0%B4%D0%B8%D1%86%D0%B8%D0%BE%D0%BD%D0%B5%D1%80%D0%B0/data=!4m7!3m6!1s0x46b5494740b1fb81:0xc0beed374209d4b3!8m2!3d55.7245095!4d37.5092104!16s%2Fg%2F11fppc6z30!19sChIJgfuxQEdJtUYRs9QJQjftvsA?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%22%D0%A6%D0%90%D0%A2%22+%D0%BD%D0%B0+%D0%A1%D0%B0%D0%BB%D0%BE%D0%B2%D0%B0+70/data=!4m7!3m6!1s0x4696302005086bff:0x6332b2d9d1e6c52c!8m2!3d59.8852666!4d30.3740415!16s%2Fg%2F1v4k559r!19sChIJ_2sIBSAwlkYRLMXm0dmyMmM?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Свой Мастер | Автосервис Минская | Компьютерная диагностика авто, заправка кондиционера, пр-т. Генерала Дорохова, 9 стр 6, Москва, 123308</t>
+          <t>Автосервис "ЦАТ" на Салова 70, ул. Салова, 70, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://svoy-master.pro/</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>http://tsat-sto.ru/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'8129890070', '9650196639', '8125076104'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'master@tsat-sto.ru', 'support@tsat-sto.ru'}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MDS Auto 🔧 Автосервис, ремонт авто Люблино</t>
+          <t>Автосервис АвтоГуру</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/MDS+Auto+%F0%9F%94%A7+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B0%D0%B2%D1%82%D0%BE+%D0%9B%D1%8E%D0%B1%D0%BB%D0%B8%D0%BD%D0%BE/data=!4m7!3m6!1s0x46b54973f0925bd9:0x8583121a3f3f1250!8m2!3d55.6705993!4d37.7340598!16s%2Fg%2F11hbjm6rff!19sChIJ2VuS8HNJtUYRUBI_PxoSg4U?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%93%D1%83%D1%80%D1%83/data=!4m7!3m6!1s0x469630462d2ba703:0xf89421239e6d6353!8m2!3d59.8941439!4d30.3102137!16s%2Fg%2F11bv5sz_zd!19sChIJA6crLUYwlkYRU2NtniMhlPg?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MDS Auto 🔧 Автосервис, ремонт авто Люблино, пр. Егорьевский, 4, Москва, 123007</t>
+          <t>Автосервис АвтоГуру, Цветочная 18К Малая Митрофаньевская 10К4В, Санкт-Петербург, 192007</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://mds-auto-auto.ru/?utm_source=gmb</t>
+          <t>http://autoguru.spb.ru/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'9045670514'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'autoguru.spb@gmail.com'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Автосервис 24 часа</t>
+          <t>Автосервис Онли ВАГ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+24+%D1%87%D0%B0%D1%81%D0%B0/data=!4m7!3m6!1s0x414ab5723288da7f:0x64a32438a90c388e!8m2!3d55.6992213!4d37.8060258!16s%2Fg%2F1q62dsxcx!19sChIJf9qIMnK1SkERjjgMqTgko2Q?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9E%D0%BD%D0%BB%D0%B8+%D0%92%D0%90%D0%93/data=!4m7!3m6!1s0x4696255dd005e821:0x4f04c89986238051!8m2!3d59.8504999!4d30.3392158!16s%2Fg%2F11h4prfhwb!19sChIJIegF0F0llkYRUYAjhpnIBE8?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Автосервис 24 часа, Ташкентская ул., 28, Москва, 109473</t>
+          <t>Автосервис Онли ВАГ, пр. Юрия Гагарина, 32 к.6, Санкт-Петербург, 196143</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://xn----7sbbgabsz5cgqkeh2q.xn--p1ai/</t>
+          <t>http://only-vag.ru/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'9633432122', '9697150928', '8124099488', '9643393180'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -664,22 +680,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Автосервис "Москва"</t>
+          <t>Купчино</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%22%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B0%22/data=!4m7!3m6!1s0x46b54d2218efa139:0x4d55e41443b6f80d!8m2!3d55.660726!4d37.5344309!16s%2Fg%2F11p5nxlqwv!19sChIJOaHvGCJNtUYRDfi2QxTkVU0?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9A%D1%83%D0%BF%D1%87%D0%B8%D0%BD%D0%BE/data=!4m7!3m6!1s0x469625699c1e49f7:0xd74442d57630f2bd!8m2!3d59.8416757!4d30.3725433!16s%2Fg%2F11b7lld_r5!19sChIJ90kenGkllkYRvfIwdtVCRNc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Автосервис "Москва", Старокалужское ш., 64А, Москва, 117630</t>
+          <t>Купчино, Малая Балканская ул., 7к4, Санкт-Петербург, 192284</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://avtoservis-moscow.ru/</t>
+          <t>http://vk.com/public91085081</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -689,186 +705,194 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'info@timeweb.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABCAUTO | Автосервис Дегунино Восточное | Автомойка, замена масла, шиномонтаж</t>
+          <t>Автосервис МС-АВТО Кировский завод Ремонт двигателя, шиномонтаж</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/ABCAUTO+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%94%D0%B5%D0%B3%D1%83%D0%BD%D0%B8%D0%BD%D0%BE+%D0%92%D0%BE%D1%81%D1%82%D0%BE%D1%87%D0%BD%D0%BE%D0%B5+%7C+%D0%90%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6/data=!4m7!3m6!1s0x46b5376443525947:0x932cf6501b155822!8m2!3d55.8869836!4d37.5562582!16s%2Fg%2F1tj882sx!19sChIJR1lSQ2Q3tUYRIlgVG1D2LJM?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%A1-%D0%90%D0%92%D0%A2%D0%9E+%D0%9A%D0%B8%D1%80%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9+%D0%B7%D0%B0%D0%B2%D0%BE%D0%B4+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6/data=!4m7!3m6!1s0x46963a6318b81be3:0x38711c2f3c3cc8f7!8m2!3d59.8752197!4d30.2525102!16s%2Fg%2F1ths802d!19sChIJ4xu4GGM6lkYR98g8PC8ccTg?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ABCAUTO | Автосервис Дегунино Восточное | Автомойка, замена масла, шиномонтаж, Дубнинская ул., 75стр 1Б, Москва, 127591</t>
+          <t>Автосервис МС-АВТО Кировский завод Ремонт двигателя, шиномонтаж, Кронштадтская ул., 3 к1, 1 этаж, Санкт-Петербург, 198096</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.abcautoservice.ru/</t>
+          <t>http://mc-auto.ru/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'4954320363', '9653691864'}</t>
+          <t>{'8123095631', '8123477533', '9650920117'}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'info@abcautoservice.ru', 'slick@1.8.1'}</t>
+          <t>{'service@mc-auto.ru', 'opt@mc-auto.ru', 'Rating@Mail.ru'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MYautoLAB | Автосервис Волоколамская | Шиномонтаж, замена масла, кузовной ремонт</t>
+          <t>Гепард-Сервис | Автосервис Бухарестская | Развал - схождение, чистка форсунок, замена масла</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/MYautoLAB+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%92%D0%BE%D0%BB%D0%BE%D0%BA%D0%BE%D0%BB%D0%B0%D0%BC%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%A8%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x46b54840fddac311:0xed383f3413a07283!8m2!3d55.8332729!4d37.4090163!16s%2Fg%2F11cndb8dsx!19sChIJEcPa_UBItUYRg3KgEzQ_OO0?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%93%D0%B5%D0%BF%D0%B0%D1%80%D0%B4-%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%91%D1%83%D1%85%D0%B0%D1%80%D0%B5%D1%81%D1%82%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB+-+%D1%81%D1%85%D0%BE%D0%B6%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5,+%D1%87%D0%B8%D1%81%D1%82%D0%BA%D0%B0+%D1%84%D0%BE%D1%80%D1%81%D1%83%D0%BD%D0%BE%D0%BA,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0/data=!4m7!3m6!1s0x4696302036f37a3b:0x139466cb6cb65f1c!8m2!3d59.8874363!4d30.3747525!16s%2Fg%2F1tdwclrj!19sChIJO3rzNiAwlkYRHF-2bMtmlBM?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MYautoLAB | Автосервис Волоколамская | Шиномонтаж, замена масла, кузовной ремонт, Походный пр-д, 2А, Москва, 125371</t>
+          <t>Гепард-Сервис | Автосервис Бухарестская | Развал - схождение, чистка форсунок, замена масла, ул. Салова, 57к1, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://myautolab.ru/</t>
+          <t>https://gepard-service.ru/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'9055557715', ' 495 123 45 67', ' 905 555 77 15', ' 495 159 5145', '4951595145'}</t>
+          <t>{'8124489947'}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'info@myautolab.ru', 'myautolab@gmail.com', 'info@mylab.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Автосервис Драйв Люблино | замена масла, шиномонтаж, кузовной ремонт</t>
+          <t>Автосервис PERSONA autoservice</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%94%D1%80%D0%B0%D0%B9%D0%B2+%D0%9B%D1%8E%D0%B1%D0%BB%D0%B8%D0%BD%D0%BE+%7C+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x414ab54c2016850f:0x8a13e37c94cac14d!8m2!3d55.659253!4d37.8106315!16s%2Fg%2F11gxsb84gb!19sChIJD4UWIEy1SkERTcHKlHzjE4o?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+PERSONA+autoservice/data=!4m7!3m6!1s0x4696304a51ac2d85:0x64e5001427b1048e!8m2!3d59.9113603!4d30.3557755!16s%2Fg%2F11b88k40yg!19sChIJhS2sUUowlkYRjgSxJxQA5WQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Автосервис Драйв Люблино | замена масла, шиномонтаж, кузовной ремонт, Чагинская ул., 3, Москва, 109380</t>
+          <t>Автосервис PERSONA autoservice, Курская ул., 28, Санкт-Петербург, 192007</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://drive-lublino.ru/</t>
+          <t>https://personaspb.com/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'9055787758', '4951368003'}</t>
+          <t>{'8129269228'}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'Avtocurer83@mail.ru'}</t>
+          <t>{'persona.sto@yandex.ru', 'persona.auto@mail.ru'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Автосервис СМ-моторс | Ремонт двигателя, тюнинг, шиномонтаж Новые Черёмушки</t>
+          <t>СТО Mazda</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A1%D0%9C-%D0%BC%D0%BE%D1%82%D0%BE%D1%80%D1%81+%7C+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D1%82%D1%8E%D0%BD%D0%B8%D0%BD%D0%B3,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6+%D0%9D%D0%BE%D0%B2%D1%8B%D0%B5+%D0%A7%D0%B5%D1%80%D1%91%D0%BC%D1%83%D1%88%D0%BA%D0%B8/data=!4m7!3m6!1s0x46b54d1823771761:0x52f36102d0c33c3c!8m2!3d55.6701456!4d37.552355!16s%2Fg%2F11gzd536g!19sChIJYRd3IxhNtUYRPDzD0AJh81I?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+Mazda/data=!4m7!3m6!1s0x46963011dbfc50c9:0x80cdbe3c8a5d3601!8m2!3d59.8822146!4d30.3367686!16s%2Fg%2F11b6d00r6r!19sChIJyVD82xEwlkYRATZdijy-zYA?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Автосервис СМ-моторс | Ремонт двигателя, тюнинг, шиномонтаж Новые Черёмушки, ул. Профсоюзная, 56, 1 этаж, Москва, 117393</t>
+          <t>СТО Mazda, Рощинская ул., 32, Санкт-Петербург, 196105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://sm-motors-auto.ru/?utm_source=gmb</t>
+          <t>http://maz-sto-da.ru/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'9045677198'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'Q@RqRkxu.ANLRjt8tTRoaxj'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>С-моторс | Автосервис Братиславская | Диагностика авто, шиномонтаж, шумоизоляция</t>
+          <t>Автосервис "Фучика 14/3"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A1-%D0%BC%D0%BE%D1%82%D0%BE%D1%80%D1%81+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%91%D1%80%D0%B0%D1%82%D0%B8%D1%81%D0%BB%D0%B0%D0%B2%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%94%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%B0%D0%B2%D1%82%D0%BE,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6,+%D1%88%D1%83%D0%BC%D0%BE%D0%B8%D0%B7%D0%BE%D0%BB%D1%8F%D1%86%D0%B8%D1%8F/data=!4m7!3m6!1s0x414ab43f7d62e2c3:0x50ba5a5695efce8!8m2!3d55.6656928!4d37.7424518!16s%2Fg%2F1tzgh5fp!19sChIJw-JifT-0SkER6PxeaaWlCwU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%22%D0%A4%D1%83%D1%87%D0%B8%D0%BA%D0%B0+14%2F3%22/data=!4m7!3m6!1s0x46962fde7e90d5ed:0xa48a8bba1b3a6215!8m2!3d59.8842876!4d30.3862418!16s%2Fg%2F1pp2vmfll!19sChIJ7dWQft4vlkYRFWI6G7qLiqQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>С-моторс | Автосервис Братиславская | Диагностика авто, шиномонтаж, шумоизоляция, Люблинская ул., 139с9, 1 этаж, Москва, 109382</t>
+          <t>Автосервис "Фучика 14/3", ул. Фучика, 14/3, Санкт-Петербург, 192236</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://xn----xtbgakbff.com/</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>http://kupchinosto.ru/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Автосервис АРЗ-5 | Автосервис Марьина роща | Диагностика автомобиля, ремонт фар, замена масла</t>
+          <t>Мега-Точка | Автосервис Бухарестская | Автомойка, замена масла, кузовной ремонт</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%A0%D0%97-5+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%B0%D1%80%D1%8C%D0%B8%D0%BD%D0%B0+%D1%80%D0%BE%D1%89%D0%B0+%7C+%D0%94%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8F,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D1%84%D0%B0%D1%80,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0/data=!4m7!3m6!1s0x46b5360057827d23:0x9b7d63d26dbf4a2c!8m2!3d55.8016414!4d37.6046457!16s%2Fg%2F1thp_d29!19sChIJI32CVwA2tUYRLEq_bdJjfZs?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9C%D0%B5%D0%B3%D0%B0-%D0%A2%D0%BE%D1%87%D0%BA%D0%B0+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%91%D1%83%D1%85%D0%B0%D1%80%D0%B5%D1%81%D1%82%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%90%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x46962fddadbc4ff7:0x5f97b3325b5fd3aa!8m2!3d59.8831008!4d30.3914241!16s%2Fg%2F1pp2vg1qm!19sChIJ90-8rd0vlkYRqtNfWzKzl18?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Автосервис АРЗ-5 | Автосервис Марьина роща | Диагностика автомобиля, ремонт фар, замена масла, 8-й пр. Марьиной Рощи, 30, Москва, 129594</t>
+          <t>Мега-Точка | Автосервис Бухарестская | Автомойка, замена масла, кузовной ремонт, Софийская ул., 8к1, 1 этаж, Санкт-Петербург, 192236</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://arz5.ru/</t>
+          <t>http://mega-tochka.ru/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'4993221152'}</t>
+          <t>{'9626845451', '8126433367'}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -880,59 +904,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Автосервис Гольф-Авто</t>
+          <t>Автосервис ААА</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%93%D0%BE%D0%BB%D1%8C%D1%84-%D0%90%D0%B2%D1%82%D0%BE/data=!4m7!3m6!1s0x414acaa42162ea07:0x967dcd63c200face!8m2!3d55.7480845!4d37.7553027!16s%2Fg%2F1tr7gy9p!19sChIJB-piIaTKSkERzvoAwmPNfZY?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%90%D0%90/data=!4m7!3m6!1s0x46963ab4045928d7:0xe578153862299833!8m2!3d59.8534322!4d30.3162364!16s%2Fg%2F1hdz_hfyt!19sChIJ1yhZBLQ6lkYRM5gpYjgVeOU?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Автосервис Гольф-Авто, Перовская ул., 1, Москва, 111524</t>
+          <t>Автосервис ААА, Московский пр-т., 191А, Санкт-Петербург, 196066</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.golfauto.ru/</t>
+          <t>https://avtoservis.aramarno.ru/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'9055123535', '4953069116', '4953069818', '4957084858'}</t>
+          <t>{' 905 223 15 55', '9119259255', '9052231555'}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'golfauto@mail.ru'}</t>
+          <t>{'remont@aramarno.ru'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Автосервис АвтоСеть Очаково | автомойка, ремонт автокондиционеров, сход-развал</t>
+          <t>Авторитет</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%A1%D0%B5%D1%82%D1%8C+%D0%9E%D1%87%D0%B0%D0%BA%D0%BE%D0%B2%D0%BE+%7C+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B0%D0%B2%D1%82%D0%BE%D0%BA%D0%BE%D0%BD%D0%B4%D0%B8%D1%86%D0%B8%D0%BE%D0%BD%D0%B5%D1%80%D0%BE%D0%B2,+%D1%81%D1%85%D0%BE%D0%B4-%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB/data=!4m7!3m6!1s0x46b54dd994d9cc79:0xb7fd448ff13ca82b!8m2!3d55.6891232!4d37.4335715!16s%2Fg%2F11b6jgvqp1!19sChIJeczZlNlNtUYRK6g88Y9E_bc?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%80%D0%B8%D1%82%D0%B5%D1%82/data=!4m7!3m6!1s0x46963ac5735c858b:0x3edc1a5bf3ed99d3!8m2!3d59.8444199!4d30.2913914!16s%2Fg%2F11h9yvcgy_!19sChIJi4Vcc8U6lkYR05nt81sa3D4?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Автосервис АвтоСеть Очаково | автомойка, ремонт автокондиционеров, сход-развал, Рябиновая ул., 55 строение 31, 1 этаж, въезд на территорию с улицы, Москва, 121471</t>
+          <t>Авторитет, Кубинская ул., 73, Санкт-Петербург, 196240</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://avtoset-ochakovo.obiz.ru/?utm_source=gmb</t>
+          <t>https://avtoritetavtoservis.ru/?utm_source=gmb</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'9045678477'}</t>
+          <t>{'9813354199'}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -944,118 +968,118 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Автосервис «Богема Механикс» | автомойка, сход-развал Зюзино</t>
+          <t>АВТОСЕРВИС Nediler</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%C2%AB%D0%91%D0%BE%D0%B3%D0%B5%D0%BC%D0%B0+%D0%9C%D0%B5%D1%85%D0%B0%D0%BD%D0%B8%D0%BA%D1%81%C2%BB+%7C+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0,+%D1%81%D1%85%D0%BE%D0%B4-%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB+%D0%97%D1%8E%D0%B7%D0%B8%D0%BD%D0%BE/data=!4m7!3m6!1s0x46b54cd797391e67:0x48e9a2a5abad8e0b!8m2!3d55.661119!4d37.562232!16s%2Fg%2F11r8nwzyk!19sChIJZx45l9dMtUYRC46tq6Wi6Ug?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%92%D0%A2%D0%9E%D0%A1%D0%95%D0%A0%D0%92%D0%98%D0%A1+Nediler/data=!4m7!3m6!1s0x46963c08d1d690ab:0x31f911149a1d59b1!8m2!3d59.8890435!4d30.3784154!16s%2Fg%2F11g6_2lqdy!19sChIJq5DW0Qg8lkYRsVkdmhQR-TE?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Автосервис «Богема Механикс» | автомойка, сход-развал Зюзино, охраняемая территория, ул. Каховка, 30, Москва, 117461</t>
+          <t>АВТОСЕРВИС Nediler, ул. Салова, 53к1Б, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://bogema-mehaniks.ru/?utm_source=gmb</t>
+          <t>https://nediler.spb.ru/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'9267345298'}</t>
+          <t>{'9119222011'}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'nediler.spb@yandex.ru'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Автосервис Нивюс в Даниловском районе Ӏ замена масла, кузовной ремонт, автомойка</t>
+          <t>Автосервис Астор</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9D%D0%B8%D0%B2%D1%8E%D1%81+%D0%B2+%D0%94%D0%B0%D0%BD%D0%B8%D0%BB%D0%BE%D0%B2%D1%81%D0%BA%D0%BE%D0%BC+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD%D0%B5+%D3%80+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0/data=!4m7!3m6!1s0x46b54b3177627753:0x40af901d509f777f!8m2!3d55.7063348!4d37.6455433!16s%2Fg%2F1pp2ths0g!19sChIJU3didzFLtUYRf3efUB2Qr0A?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D1%81%D1%82%D0%BE%D1%80/data=!4m7!3m6!1s0x46963001f7c32227:0xb828dfbcdfa6b554!8m2!3d59.8704127!4d30.3538471!16s%2Fg%2F11j1hz2_7k!19sChIJJyLD9wEwlkYRVLWm37zfKLg?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Автосервис Нивюс в Даниловском районе Ӏ замена масла, кузовной ремонт, автомойка, Автозаводская ул., 16к2с16, Москва, 115280</t>
+          <t>Автосервис Астор, Витебский пр., 17, корпус, Санкт-Петербург, 196105</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nivus.ru/</t>
+          <t>https://astorauto.ru/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'4951321322', '4951063930', '4956203537', '4956203536', '9255143438'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'select2@4.1.0-rc.0', 'dmitrovka@nivus.ru', 'js-cookie@3.0.1', 'info@nivus.ru'}</t>
+          <t>{'mail@astor-auto.ru', 'mail@astorauto.ru'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Автосервис TORTUGA MOTORS</t>
+          <t>АВТОСЕРВИС ТОЙОТА-СЕРВИС ЛИГОВСКИЙ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+TORTUGA+MOTORS/data=!4m7!3m6!1s0x46b54bf86ef482b5:0xcafca81d2f0a5239!8m2!3d55.7248!4d37.5115!16s%2Fg%2F11c5zztr69!19sChIJtYL0bvhLtUYROVIKLx2o_Mo?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%92%D0%A2%D0%9E%D0%A1%D0%95%D0%A0%D0%92%D0%98%D0%A1+%D0%A2%D0%9E%D0%99%D0%9E%D0%A2%D0%90-%D0%A1%D0%95%D0%A0%D0%92%D0%98%D0%A1+%D0%9B%D0%98%D0%93%D0%9E%D0%92%D0%A1%D0%9A%D0%98%D0%99/data=!4m7!3m6!1s0x4696304691e4fd25:0x154c6abcdcc3e28!8m2!3d59.9026128!4d30.3367353!16s%2Fg%2F1tdcf0s1!19sChIJJf3kkUYwlkYRKD7MzavGVAE?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Автосервис TORTUGA MOTORS, Проектируемый Проезд, 726, 8 стр. 1, Москва, 117648</t>
+          <t>АВТОСЕРВИС ТОЙОТА-СЕРВИС ЛИГОВСКИЙ, Ново-Рыбинская ул., 19/21А, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://tortuga-motors.ru/</t>
+          <t>https://toyota-piter.ru/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'8124545461', '9217693301', '8123359757'}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'info@toyota-piter.ru'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Автосервис- юзао</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81-+%D1%8E%D0%B7%D0%B0%D0%BE/data=!4m7!3m6!1s0x46b54d4592f598f7:0xaad256a45b75be57!8m2!3d55.6390048!4d37.5193143!16s%2Fg%2F11gzl4pcj!19sChIJ95j1kkVNtUYRV751W6RW0qo?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Point+24/data=!4m7!3m6!1s0x469625560a669c87:0xa7b1442db8e0e9a0!8m2!3d59.861886!4d30.357085!16s%2Fg%2F1pzqkfct6!19sChIJh5xmClYllkYRoOnguC1Esac?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Автосервис- юзао, ул. Профсоюзная, 114с1, Москва, 117437</t>
+          <t>Point 24, Витебский пр., 27, Санкт-Петербург, 196244</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.avtoservis-uzao.ru/</t>
+          <t>http://www.point24h.ru/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1072,27 +1096,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Автомоторика | Автосервис Ильменский проезд</t>
+          <t>СТО Рено Питер</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D1%82%D0%BE%D1%80%D0%B8%D0%BA%D0%B0+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%98%D0%BB%D1%8C%D0%BC%D0%B5%D0%BD%D1%81%D0%BA%D0%B8%D0%B9+%D0%BF%D1%80%D0%BE%D0%B5%D0%B7%D0%B4/data=!4m7!3m6!1s0x46b537bd595d27a7:0x78297088b14217ae!8m2!3d55.8574735!4d37.5454697!16s%2Fg%2F11d_ptplx2!19sChIJpyddWb03tUYRrhdCsYhwKXg?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%A0%D0%B5%D0%BD%D0%BE+%D0%9F%D0%B8%D1%82%D0%B5%D1%80/data=!4m7!3m6!1s0x46963021f7daaaab:0x1274b17aa63d0ad0!8m2!3d59.8874976!4d30.3660563!16s%2Fg%2F11qpqjn_d6!19sChIJq6ra9yEwlkYR0Ao9pnqxdBI?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Автомоторика | Автосервис Ильменский проезд, Ильменский пр-д, 9 строение 2, Москва, 127238</t>
+          <t>СТО Рено Питер, д. 22 к2, Бухарестская ул., Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://avtomotorika.com/</t>
+          <t>http://remont-renault-spb.ru/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'4951813393', '9015466800', '4951861269'}</t>
+          <t>{'8124093596'}</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1104,27 +1128,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Автосервис Red Motors</t>
+          <t>Ремонт Киа СПб</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Red+Motors/data=!4m7!3m6!1s0x414ab3af688b1b9b:0x53a2685ee1814c70!8m2!3d55.6709835!4d37.6327725!16s%2Fg%2F11fkckm3vd!19sChIJmxuLaK-zSkERcEyB4V5oolM?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%9A%D0%B8%D0%B0+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x4696311552ea25c3:0x5ab8830a8fb2cc71!8m2!3d59.887474!4d30.374452!16s%2Fg%2F11p_4lqf5j!19sChIJwyXqUhUxlkYRccyyjwqDuFo?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Автосервис Red Motors, Хлебозаводский пр-д, 7А, 1 этаж, Москва, 115230</t>
+          <t>Ремонт Киа СПб, ул. Салова, 57 корпус 1, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://red-motors-auto.ru/?utm_source=gmb</t>
+          <t>https://remont-k-spb.ru/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'9045679488'}</t>
+          <t>{'8124099397'}</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1136,83 +1160,91 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Автосервис Багира-Моторс Ремонт двигателя, замена масла</t>
+          <t>Митроф-авто, Автосервис</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%91%D0%B0%D0%B3%D0%B8%D1%80%D0%B0-%D0%9C%D0%BE%D1%82%D0%BE%D1%80%D1%81+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0/data=!4m7!3m6!1s0x46b54912948d771d:0xf3e34c3a2ce35d5!8m2!3d55.7280852!4d37.6813209!16s%2Fg%2F11f_j96g1k!19sChIJHXeNlBJJtUYR1TXOosM0Pg8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9C%D0%B8%D1%82%D1%80%D0%BE%D1%84-%D0%B0%D0%B2%D1%82%D0%BE,+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x469630600b5ae67f:0x6c988be13080da11!8m2!3d59.9005699!4d30.3002071!16s%2Fg%2F1tf56jwn!19sChIJf-ZaC2AwlkYREdqAMOGLmGw?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Автосервис Багира-Моторс Ремонт двигателя, замена масла, Талалихина ул., 41, стр. 50, Москва, 123308</t>
+          <t>Митроф-авто, Автосервис, Митрофаньевское ш., 4e, Санкт-Петербург, 198095</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://bagira-motors.ru/</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>https://mitrofavto.ru/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{'9219639391', '9500435944', '9219611486'}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{'info@mitrofavto.ru'}</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Автосервис Фамо Моторс на метро Автозаводская | замена масла, заправка кондиционера, кузовной ремонт</t>
+          <t>Автосервис "Витебский "</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A4%D0%B0%D0%BC%D0%BE+%D0%9C%D0%BE%D1%82%D0%BE%D1%80%D1%81+%D0%BD%D0%B0+%D0%BC%D0%B5%D1%82%D1%80%D0%BE+%D0%90%D0%B2%D1%82%D0%BE%D0%B7%D0%B0%D0%B2%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%B7%D0%B0%D0%BF%D1%80%D0%B0%D0%B2%D0%BA%D0%B0+%D0%BA%D0%BE%D0%BD%D0%B4%D0%B8%D1%86%D0%B8%D0%BE%D0%BD%D0%B5%D1%80%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x414ab4cd3b7d4dfb:0x90d8434c9fa58a59!8m2!3d55.7082015!4d37.6649395!16s%2Fg%2F12qfhrdn2!19sChIJ-019O820SkERWYqln0xD2JA?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%22%D0%92%D0%B8%D1%82%D0%B5%D0%B1%D1%81%D0%BA%D0%B8%D0%B9+%22/data=!4m7!3m6!1s0x469630167d797685:0xb06757c457a04f7f!8m2!3d59.8890538!4d30.3438139!16s%2Fg%2F1tfnx7qd!19sChIJhXZ5fRYwlkYRf0-gV8RXZ7A?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Автосервис Фамо Моторс на метро Автозаводская | замена масла, заправка кондиционера, кузовной ремонт, 1-й Кожуховский пр-д, 19, Москва, 115280</t>
+          <t>Автосервис "Витебский ", Витебский пр., 1А, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://famo-motors.ru/</t>
+          <t>https://vitebskiy1.ru/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'9102812098', '4991130681'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'info@famo-motors.ru'}</t>
+          <t>{'info@vitebskiy1.ru'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Автосервис КАПИТАН-АВТО | замена масла, кузовной ремонт Головинский район</t>
+          <t>Восход</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9A%D0%90%D0%9F%D0%98%D0%A2%D0%90%D0%9D-%D0%90%D0%92%D0%A2%D0%9E+%7C+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%93%D0%BE%D0%BB%D0%BE%D0%B2%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD/data=!4m7!3m6!1s0x414ab40c8be6987f:0x7752062f0760a139!8m2!3d55.847773!4d37.5050814!16s%2Fg%2F1tf741_y!19sChIJf5jmiwy0SkEROaFgBy8GUnc?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%92%D0%BE%D1%81%D1%85%D0%BE%D0%B4/data=!4m7!3m6!1s0x4696254c3636a249:0x3aac6a0bbef4ceeb!8m2!3d59.8514512!4d30.3394663!16s%2Fg%2F1tdh2jmg!19sChIJSaI2NkwllkYR6870vgtqrDo?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Автосервис КАПИТАН-АВТО | замена масла, кузовной ремонт Головинский район, Кронштадтский б-р, 35Б, Москва, 125499</t>
+          <t>Восход, пр. Юрия Гагарина д32 к3, Санкт-Петербург, 196233</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://kapitan-avto.ru/?utm_source=gmb</t>
+          <t>http://voshod78.ru/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'9045670874'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1224,22 +1256,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Автосервис РяДОМ</t>
+          <t>Мультибрендовый автосервис Inchcape</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A0%D1%8F%D0%94%D0%9E%D0%9C/data=!4m7!3m6!1s0x414ac9c3cedab14b:0x8a4edb8328cf694b!8m2!3d55.7027511!4d37.9187164!16s%2Fg%2F11c6yjb11j!19sChIJS7HazsPJSkERS2nPKIPbToo?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9C%D1%83%D0%BB%D1%8C%D1%82%D0%B8%D0%B1%D1%80%D0%B5%D0%BD%D0%B4%D0%BE%D0%B2%D1%8B%D0%B9+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Inchcape/data=!4m7!3m6!1s0x46963ac0ec2dc145:0x43791877b11e4cfc!8m2!3d59.852933!4d30.289385!16s%2Fg%2F11f105bvwq!19sChIJRcEt7MA6lkYR_EwesXcYeUM?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Автосервис РяДОМ, Рождественская ул., 14к2, Москва, 111674</t>
+          <t>Мультибрендовый автосервис Inchcape, Ленинский пр-т., 146, Санкт-Петербург, 196247</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://ryadom-auto.ru/?utm_source=gmb</t>
+          <t>https://service.inchcapecars.ru/?utm_campaign=gmb&amp;utm_medium=organic&amp;utm_source=local</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1248,142 +1280,142 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Автосервис</t>
+          <t>Автосервис самообслуживания спб</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x414ab306ec7410b9:0x7346bcede133149b!8m2!3d55.6385878!4d37.6397857!16s%2Fg%2F11bt_lwl09!19sChIJuRB07AazSkERmxQz4e28RnM?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D1%81%D0%B0%D0%BC%D0%BE%D0%BE%D0%B1%D1%81%D0%BB%D1%83%D0%B6%D0%B8%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F+%D1%81%D0%BF%D0%B1/data=!4m7!3m6!1s0x469630831f9721e7:0x82c63292f8371238!8m2!3d59.9063178!4d30.2743499!16s%2Fg%2F11fyl5s_n9!19sChIJ5yGXH4MwlkYROBI3-JIyxoI?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Автосервис, Кантемировская ул., 65, Москва, 115477</t>
+          <t>Автосервис самообслуживания спб, набережная Обводного канала, 150р, Санкт-Петербург, 196643</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://avtoservice65.ru/</t>
+          <t>https://www.acc24.spb.ru/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'9015367155'}</t>
+          <t>{'9626853210'}</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'react-dom@18.2.0', 'react@18.2.0', 'isaev-d@inbox.ru', '605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com', 'baf30a2b91654c5a840931f0137bed30@sentry.wixpress.com', '0e6a29e4756740a8a63493e912ba2174@sentry.wixpress.com', 'core-js-bundle@3.2.1', 'dd0a55ccb8124b9c9d938e3acf41f8aa@sentry.wixpress.com', 'focus-within-polyfill@5.0.9', 'c183baa23371454f99f417f6616b724d@sentry.wixpress.com', 'lodash@4.17.21', '8c4075d5481d476e945486754f783364@sentry.io'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот</t>
+          <t>Авто Феникс</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BF%D0%B8%D0%BB%D0%BE%D1%82/data=!4m7!3m6!1s0x46b54b61880ac179:0x68ef0cfec94ac3da!8m2!3d55.7029803!4d37.5883133!16s%2Fg%2F11f40xy8dj!19sChIJecEKiGFLtUYR2sNKyf4M72g?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE+%D0%A4%D0%B5%D0%BD%D0%B8%D0%BA%D1%81/data=!4m7!3m6!1s0x4696302d1cbbd2d5:0xd2c1a07236ee1217!8m2!3d59.880221!4d30.426186!16s%2Fg%2F11gz_4nv4!19sChIJ1dK7HC0wlkYRFxLuNnKgwdI?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот, ул. Вавилова, 9А строение 11, Москва, 117312</t>
+          <t>Авто Феникс, ул. Седова, 57, Санкт-Петербург, 192019</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://xn----8sbgaldwc9aoxegedf0fwd.xn--p1ai/</t>
+          <t>http://avto-feniks.obiz.ru/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>{'4954775549', '4954775119', '4951616051', '4952600960', '4952601012', '4954773368', '4956625902', '4954779617', '4951299910', '4951508009', '4954779610', '4957441137', '4958460014', '4952150139', '4956665658', '4958468006', '4954773361', '9851662484', '4955405311', '4955454478', '9096243589', '4951201235', '4954775103', '4956608320', '4955131302', '4956461136', '4951505762', '4956779507', '4954775384', '4951201521', '4951518970', '4952601076', '4952121385', '4954773385', '4952121322', '4954773382', '4957887797', '4958460027', '4954886625', '4958592105', '4954775037', '4956665649', '4957894910', '9256095556', '4954776678'}</t>
+          <t>{'9813372816'}</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{'vn111@list.ru', 'rabota@autopilot-sto.ru', 'bootstrap@5.2.1'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Автосервис «МосМоторс»</t>
+          <t>Авто-Сфера</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%C2%AB%D0%9C%D0%BE%D1%81%D0%9C%D0%BE%D1%82%D0%BE%D1%80%D1%81%C2%BB/data=!4m7!3m6!1s0x46b5490dfce71b61:0x5f6734c97258815b!8m2!3d55.774014!4d37.501012!16s%2Fg%2F11c1v23d7_!19sChIJYRvn_A1JtUYRW4FYcsk0Z18?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE-%D0%A1%D1%84%D0%B5%D1%80%D0%B0/data=!4m7!3m6!1s0x469630275a7b01cb:0x5e94c9f9d49ee0bd!8m2!3d59.8632738!4d30.2819142!16s%2Fg%2F11dx9h8ljc!19sChIJywF7WicwlkYRveCe1PnJlF4?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Автосервис «МосМоторс», ул. Мнёвники, 1, cтр. 5, Москва, 123308</t>
+          <t>Авто-Сфера, Краснопутиловская ул., 65, Санкт-Петербург, 198152</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://mosmotors.moscow/</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>{'9266343949', '4959843949'}</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>{'info@mosmotors.moscow'}</t>
-        </is>
-      </c>
+          <t>https://doc4car.ru/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кентурион</t>
+          <t>Автосервис Ремзона - Купчино</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9A%D0%B5%D0%BD%D1%82%D1%83%D1%80%D0%B8%D0%BE%D0%BD/data=!4m7!3m6!1s0x46b54bcccfe7fe4b:0x676f941c34022852!8m2!3d55.7581405!4d37.5705069!16s%2Fg%2F1hc37nml0!19sChIJS_7nz8xLtUYRUigCNByUb2c?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A0%D0%B5%D0%BC%D0%B7%D0%BE%D0%BD%D0%B0+-+%D0%9A%D1%83%D0%BF%D1%87%D0%B8%D0%BD%D0%BE/data=!4m7!3m6!1s0x46962f8544e41923:0x4dee799af3773001!8m2!3d59.8591772!4d30.4188436!16s%2Fg%2F11f3nbpvkm!19sChIJIxnkRIUvlkYRATB385p57k0?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Кентурион, Верхний Предтеченский пер., 11с2, Москва, 123242</t>
+          <t>Автосервис Ремзона - Купчино, Софийская ул., 63с, Санкт-Петербург, 192241</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://kenturion-service.ru/</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+          <t>https://kupchino-auto.ru/?utm_source=gmap</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{'8129603341'}</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Лучший Автосервис</t>
+          <t>Автосервис К14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9B%D1%83%D1%87%D1%88%D0%B8%D0%B9+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x46b537f361e593ef:0x2d6afea1d0dd708c!8m2!3d55.743569!4d37.699635!16s%2Fg%2F11g0hmtgt1!19sChIJ75PlYfM3tUYRjHDd0KH-ai0?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9A14/data=!4m7!3m6!1s0x4696311039f92e89:0x86221db46cc7bf87!8m2!3d59.9124565!4d30.3954181!16s%2Fg%2F1tdm6_1g!19sChIJiS75ORAxlkYRh7_HbLQdIoY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Лучший Автосервис, ул. Старообрядческая, 28а с.1, Москва, 125438</t>
+          <t>Автосервис К14, Профессора Качалова, 14 лит, В 1 этаж, Санкт-Петербург, 192019</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://clubvolvo.ru/forums/sto-asmoscow-msk.155/</t>
+          <t>https://k14.ru/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1393,34 +1425,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'k-14@inbox.ru', 'Rating@Mail.ru'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Автосервис QuickMADE</t>
+          <t>Casa del Biscione</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+QuickMADE/data=!4m7!3m6!1s0x46b5354065a0d3c3:0x2c3fba19617ce979!8m2!3d55.7780776!4d37.7314412!16s%2Fg%2F11gg3_xh7g!19sChIJw9OgZUA1tUYReel8YRm6Pyw?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Casa+del+Biscione/data=!4m7!3m6!1s0x4696305062273bd9:0xd54a862333838a7a!8m2!3d59.892609!4d30.3595511!16s%2Fg%2F11c158_h8j!19sChIJ2TsnYlAwlkYReoqDMyOGStU?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Автосервис QuickMADE, 1-й Кирпичный пер., 4С4, Москва, 105118</t>
+          <t>Casa del Biscione, Бухарестская ул., 6, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.quickmade.ru/</t>
+          <t>http://biscione.ru/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'9859272222', '4951254014', ' 495 1254014'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1432,27 +1464,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ВДВ | Автосервис Хорошёво - Мневники | Замена масла, шиномонтаж, автотехцентр</t>
+          <t>Автосервис СПб</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%92%D0%94%D0%92+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A5%D0%BE%D1%80%D0%BE%D1%88%D1%91%D0%B2%D0%BE+-+%D0%9C%D0%BD%D0%B5%D0%B2%D0%BD%D0%B8%D0%BA%D0%B8+%7C+%D0%97%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6,+%D0%B0%D0%B2%D1%82%D0%BE%D1%82%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80/data=!4m7!3m6!1s0x46b54912ad1eb7bb:0xc60bc0d049f9d471!8m2!3d55.7744003!4d37.5038644!16s%2Fg%2F1thxjr91!19sChIJu7cerRJJtUYRcdT5SdDAC8Y?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x469631c7a1454371:0xf50f786d4e3474b0!8m2!3d59.924024!4d30.3808381!16s%2Fg%2F11b_2f48h5!19sChIJcUNFoccxlkYRsHQ0Tm14D_U?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ВДВ | Автосервис Хорошёво - Мневники | Замена масла, шиномонтаж, автотехцентр, ул. Мнёвники, 1с11, 1 этаж, Москва, 123308</t>
+          <t>Автосервис СПб, Тележная ул., д. 34, Санкт-Петербург, 191167</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://avtotehtsentr-vdv.obiz.ru/?utm_source=gmb</t>
+          <t>http://avtoservice.spb.ru/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'9806977182'}</t>
+          <t>{'8129002055', '8129102033', '8129260502', '8129552090'}</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1464,59 +1496,59 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд</t>
+          <t>СТО Форсаж</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+-+%D0%92%D0%B8%D0%BB%D0%B3%D1%83%D0%B4/data=!4m7!3m6!1s0x46b53713f979d8ab:0x7d6bf4e72a1e90e3!8m2!3d55.8766303!4d37.5887239!16s%2Fg%2F11fkmzp3x6!19sChIJq9h5-RM3tUYR45AeKuf0a30?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%A4%D0%BE%D1%80%D1%81%D0%B0%D0%B6/data=!4m7!3m6!1s0x4696308b560100db:0xb06d41be6f34de20!8m2!3d59.9053412!4d30.2878347!16s%2Fg%2F11cmtwh4kf!19sChIJ2wABVoswlkYRIN40b75BbbA?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд, Алтуфьевское ш., 48 к 4, Москва, 127566</t>
+          <t>СТО Форсаж, ул. Розенштейна, 21, Санкт-Петербург, 198095</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://wilgood.ru/?utm_source=google&amp;utm_medium=maps&amp;utm_campaign=altufyevo-2</t>
+          <t>https://forsservice.lp151.com/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'8003022308', '4635732174', '8003017218', '4951629174', '9057571523'}</t>
+          <t>{'\xa0999\xa0333\xa033\xa033'}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'vanilla-lazyload@14.0.0'}</t>
+          <t>{'alexandrlebaga@yandex.ru', 'info@lp151.com', 'info@hetzner.com'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Автосервис Техцентр Мичуринский</t>
+          <t>ИНАВТО+ Ремонт Вольво</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A2%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80+%D0%9C%D0%B8%D1%87%D1%83%D1%80%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9/data=!4m7!3m6!1s0x46b54c484efd3001:0xc5c4aa771ac18bde!8m2!3d55.693147!4d37.488574!16s%2Fg%2F11cjrlljnf!19sChIJATD9TkhMtUYR3ovBGneqxMU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%98%D0%9D%D0%90%D0%92%D0%A2%D0%9E%2B+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%92%D0%BE%D0%BB%D1%8C%D0%B2%D0%BE/data=!4m7!3m6!1s0x469630206fc15a35:0x3e8f05cad3585799!8m2!3d59.8859855!4d30.3768405!16s%2Fg%2F1v6l64sl!19sChIJNVrBbyAwlkYRmVdY08oFjz4?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Автосервис Техцентр Мичуринский, Мичуринский пр., 54к6, Москва, 119192</t>
+          <t>ИНАВТО+ Ремонт Вольво, ул. Салова, 68, лит. В, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://autoservice54.ru/</t>
+          <t>https://inavtospb.ru/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'9013723074', '9043345005', '9013745306'}</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1528,27 +1560,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Техцентр Сервис-Авто ООО</t>
+          <t>Эдем-Авто</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A2%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80+%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81-%D0%90%D0%B2%D1%82%D0%BE+%D0%9E%D0%9E%D0%9E/data=!4m7!3m6!1s0x414ab30b947cae43:0x8cbf3b03b9fcbb3e!8m2!3d55.6511218!4d37.6422271!16s%2Fg%2F1tn4wqhx!19sChIJQ658lAuzSkERPrv8uQM7v4w?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%AD%D0%B4%D0%B5%D0%BC-%D0%90%D0%B2%D1%82%D0%BE/data=!4m7!3m6!1s0x4696307c57b58a15:0x76997fb918681b46!8m2!3d59.8899803!4d30.2880972!16s%2Fg%2F1tfc0pdx!19sChIJFYq1V3wwlkYRRhtoGLl_mXY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Техцентр Сервис-Авто ООО, Москворечье ул., 2, Москва, 115522</t>
+          <t>Эдем-Авто, Химический пер., 8, Санкт-Петербург, 198095</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://servavto.ru/</t>
+          <t>http://edem-avto.ru/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'9259284030'}</t>
+          <t>{'9112111800'}</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1560,123 +1592,115 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>АвтоРитм автосервис | техническое обслуживание, замена масла, ремонт ходовой</t>
+          <t>Инцитат Трейд</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D0%A0%D0%B8%D1%82%D0%BC+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%7C+%D1%82%D0%B5%D1%85%D0%BD%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%BE%D0%B5+%D0%BE%D0%B1%D1%81%D0%BB%D1%83%D0%B6%D0%B8%D0%B2%D0%B0%D0%BD%D0%B8%D0%B5,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D1%85%D0%BE%D0%B4%D0%BE%D0%B2%D0%BE%D0%B9/data=!4m7!3m6!1s0x414ab397d1dee57f:0xb99c7d080bc37228!8m2!3d55.6369003!4d37.6461104!16s%2Fg%2F11h1j18d5!19sChIJf-Xe0ZezSkERKHLDCwh9nLk?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%98%D0%BD%D1%86%D0%B8%D1%82%D0%B0%D1%82+%D0%A2%D1%80%D0%B5%D0%B9%D0%B4/data=!4m7!3m6!1s0x4696307057173d99:0x310788e7afe1d3bc!8m2!3d59.8822146!4d30.3367686!16s%2Fg%2F11bzwr44qy!19sChIJmT0XV3AwlkYRvNPhr-eIBzE?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>АвтоРитм автосервис | техническое обслуживание, замена масла, ремонт ходовой, Кантемировская ул., 59А, Москва, 115477</t>
+          <t>Инцитат Трейд, Рощинская ул., 32, Санкт-Петербург, 196105</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://autoritm-service.ru/</t>
+          <t>https://i-treid.ru/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'4993468527'}</t>
+          <t>{'8126770070'}</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{'fancybox@3.5.7', 'info@autoritm-service.ru', 'info@renozip.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Техцентр № 1</t>
+          <t>Большой автосервис «Салова 70»</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A2%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80+%E2%84%96+1/data=!4m7!3m6!1s0x46b54a1e45682d8f:0xd5231af5dbc44ed1!8m2!3d55.8375642!4d37.4938516!16s%2Fg%2F11b_2qlmgf!19sChIJjy1oRR5KtUYR0U7E2_UaI9U?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%BE%D0%B9+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%C2%AB%D0%A1%D0%B0%D0%BB%D0%BE%D0%B2%D0%B0+70%C2%BB/data=!4m7!3m6!1s0x4696318ef85c895b:0x3269d256ccbd585f!8m2!3d59.8855597!4d30.3749518!16s%2Fg%2F11snw1bm5g!19sChIJW4lc-I4xlkYRX1i9zFbSaTI?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Техцентр № 1, Головинское ш., 10с3, Москва, 125130</t>
+          <t>Большой автосервис «Салова 70», ул. Салова, 70, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://tehtsentr-1.obiz.ru/?utm_source=gmb</t>
+          <t>https://salova-70.ru/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'9045670736'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'A.Timofeev@salova70.ru'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот</t>
+          <t>СТО Автосервис "ЭЛИС"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BF%D0%B8%D0%BB%D0%BE%D1%82/data=!4m7!3m6!1s0x46b54918320c998f:0x7316425be966a07b!8m2!3d55.7644473!4d37.5323301!16s%2Fg%2F11f1wbdxb4!19sChIJj5kMMhhJtUYRe6Bm6VtCFnM?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%22%D0%AD%D0%9B%D0%98%D0%A1%22/data=!4m7!3m6!1s0x469631058d110049:0x1035bbf00d86cd1!8m2!3d59.9153671!4d30.3560695!16s%2Fg%2F11jnspy9bd!19sChIJSQARjQUxlkYR0WzYAL9bAwE?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот, 2-я Магистральная ул., 10с1, Москва, 123290</t>
+          <t>СТО Автосервис "ЭЛИС", ул. Черняховского, 1/63, Санкт-Петербург, 191119</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://xn----8sbgaldwc9aoxegedf0fwd.xn--p1ai/</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>{'4954775549', '4954775119', '4951616051', '4952600960', '4952601012', '4954773368', '4956625902', '4954779617', '4951299910', '4951508009', '4954779610', '4957441137', '4958460014', '4952150139', '4956665658', '4958468006', '4954773361', '9851662484', '4955405311', '4955454478', '9096243589', '4951201235', '4954775103', '4956608320', '4955131302', '4956461136', '4951505762', '4956779507', '4954775384', '4951201521', '4951518970', '4952601076', '4952121385', '4954773385', '4952121322', '4954773382', '4957887797', '4958460027', '4954886625', '4958592105', '4954775037', '4956665649', '4957894910', '9256095556', '4954776678'}</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>{'vn111@list.ru', 'rabota@autopilot-sto.ru', 'bootstrap@5.2.1'}</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/autoservice_na_obvodnom/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кволити Моторс</t>
+          <t>СТО АльфаГараж</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9A%D0%B2%D0%BE%D0%BB%D0%B8%D1%82%D0%B8+%D0%9C%D0%BE%D1%82%D0%BE%D1%80%D1%81/data=!4m7!3m6!1s0x46b53795c15c93e3:0x85613f55ceae8047!8m2!3d55.6877175!4d37.4879285!16s%2Fg%2F1hm5nw39m!19sChIJ45NcwZU3tUYRR4CuzlU_YYU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%90%D0%BB%D1%8C%D1%84%D0%B0%D0%93%D0%B0%D1%80%D0%B0%D0%B6/data=!4m7!3m6!1s0x46963bb4ecaf90c7:0x7c011a9f36fd1537!8m2!3d59.9240007!4d30.3809471!16s%2Fg%2F11gj1r1wrt!19sChIJx5Cv7LQ7lkYRNxX9Np8aAXw?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Кволити Моторс, ул. Удальцова, 60, Москва, 119607</t>
+          <t>СТО АльфаГараж, Тележная ул., Д34, Санкт-Петербург, 196128</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.qmotors.ru/</t>
+          <t>http://www.agarage.ru/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'8007756521', '4951507721', '9771250392', '4951507073', '4951507036', '4953745055'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1688,51 +1712,59 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Автосервис Прогресс</t>
+          <t>АвтоРешение, СТО</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9F%D1%80%D0%BE%D0%B3%D1%80%D0%B5%D1%81%D1%81/data=!4m7!3m6!1s0x46b552162c7b8675:0x6af98ae2dced3e78!8m2!3d55.6474603!4d37.3803962!16s%2Fg%2F11b67qd4g_!19sChIJdYZ7LBZStUYReD7t3OKK-Wo?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D0%A0%D0%B5%D1%88%D0%B5%D0%BD%D0%B8%D0%B5,+%D0%A1%D0%A2%D0%9E/data=!4m7!3m6!1s0x46962fd1b303b28b:0x77008c3023dcb802!8m2!3d59.8526712!4d30.4276455!16s%2Fg%2F1tk1lnfg!19sChIJi7IDs9EvlkYRArjcIzCMAHc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Автосервис Прогресс, Производственная ул., вл. 15, Москва, 119619</t>
+          <t>АвтоРешение, СТО, Александровской Фермы пр., д. 29ВГ, Санкт-Петербург, 192241</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://honda-progress.ru/</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>https://xn--80aejaar8afss3e.xn--p1ai/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{'8127770311'}</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>{'sto@oooreshenie.ru'}</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Сотта | Автосервис Чкаловская | Сход - развал, диагностика авто, техосмотр</t>
+          <t>Стайер</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A1%D0%BE%D1%82%D1%82%D0%B0+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A7%D0%BA%D0%B0%D0%BB%D0%BE%D0%B2%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%A1%D1%85%D0%BE%D0%B4+-+%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB,+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%B0%D0%B2%D1%82%D0%BE,+%D1%82%D0%B5%D1%85%D0%BE%D1%81%D0%BC%D0%BE%D1%82%D1%80/data=!4m7!3m6!1s0x46b54a929ceb374d:0x175f9ea829419fed!8m2!3d55.7550647!4d37.6613788!16s%2Fg%2F1tg33x54!19sChIJTTfrnJJKtUYR7Z9BKaieXxc?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D1%82%D0%B0%D0%B9%D0%B5%D1%80/data=!4m7!3m6!1s0x4696309349703f07:0xf791208f88196950!8m2!3d59.8442858!4d30.3548018!16s%2Fg%2F11h1cmgxx!19sChIJBz9wSZMwlkYRUGkZiI8gkfc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Сотта | Автосервис Чкаловская | Сход - развал, диагностика авто, техосмотр, Верхняя Сыромятническая улица, 7 стр1 1 этаж, вход с торца, Москва, 105120</t>
+          <t>Стайер, пр. Космонавтов, 55 к.2, Санкт-Петербург, 196233</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://sotta-auto.ru/?utm_source=gmb</t>
+          <t>https://www.stostayer.ru/contacts/sto-kosmonavtov</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>{'9045679902'}</t>
+          <t>{'9523648968', '9944187706', '8122404747'}</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1744,27 +1776,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>АВТОЛЕГЕНД | Автосервис Красносельская | Шиномонтаж, замена масла, автомойка</t>
+          <t>Автосервис АМВ-Сервис в Красносельском районе Ӏ замена масла, заправка кондиционера, автомойка</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%92%D0%A2%D0%9E%D0%9B%D0%95%D0%93%D0%95%D0%9D%D0%94+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D1%81%D0%B5%D0%BB%D1%8C%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%A8%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0/data=!4m7!3m6!1s0x414ab5d634b7f971:0xcb569161622bfa6f!8m2!3d55.880291!4d37.694719!16s%2Fg%2F11hgrvtlvc!19sChIJcfm3NNa1SkERb_orYmGRVss?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%9C%D0%92-%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%B2+%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D1%81%D0%B5%D0%BB%D1%8C%D1%81%D0%BA%D0%BE%D0%BC+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD%D0%B5+%D3%80+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%B7%D0%B0%D0%BF%D1%80%D0%B0%D0%B2%D0%BA%D0%B0+%D0%BA%D0%BE%D0%BD%D0%B4%D0%B8%D1%86%D0%B8%D0%BE%D0%BD%D0%B5%D1%80%D0%B0,+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0/data=!4m7!3m6!1s0x46963a4f615608c1:0xec793c9d41236934!8m2!3d59.8617713!4d30.205908!16s%2Fg%2F11dx8p9zty!19sChIJwQhWYU86lkYRNGkjQZ08eew?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>АВТОЛЕГЕНД | Автосервис Красносельская | Шиномонтаж, замена масла, автомойка, ул. Малыгина, 7, Москва, 109382</t>
+          <t>Автосервис АМВ-Сервис в Красносельском районе Ӏ замена масла, заправка кондиционера, автомойка, ул. Маршала Казакова, 35, Санкт-Петербург, 198332</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://avtolegend.ru/avtotehtsentr_avtolegend_na_ulitse_malygina/?utm_source=gmb</t>
+          <t>http://amv-servis.obiz.ru/?utm_source=gmb</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'9045670917'}</t>
+          <t>{'9813369657'}</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1776,195 +1808,203 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Автосервис Автоклондайк Клуб</t>
+          <t>Автосервис Стэк</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BA%D0%BB%D0%BE%D0%BD%D0%B4%D0%B0%D0%B9%D0%BA+%D0%9A%D0%BB%D1%83%D0%B1/data=!4m7!3m6!1s0x46b54e8594ba0aff:0x48a740d9aa0a1ce8!8m2!3d55.7128077!4d37.4266463!16s%2Fg%2F11c3mtc554!19sChIJ_wq6lIVOtUYR6BwKqtlAp0g?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A1%D1%82%D1%8D%D0%BA/data=!4m7!3m6!1s0x46963a59c2e7cbc9:0xff2b211b898774ca!8m2!3d59.86204!4d30.2330769!16s%2Fg%2F1tdjvpk6!19sChIJycvnwlk6lkYRynSHiRshK_8?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Автосервис Автоклондайк Клуб, ул. Верейская, 29с1, Москва, 121357</t>
+          <t>Автосервис Стэк, пр. Маршала Жукова, 23, Санкт-Петербург, 198505</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://service.ak-club.ru/</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+          <t>http://avtostek.ru/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Автосервис ViaMotors</t>
+          <t>Автосервис SpbAuto Звёздная | СТО, ремонт двигателей, кузовной ремонт</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+ViaMotors/data=!4m7!3m6!1s0x46b54cef1eaf7967:0xa696f66326c0e703!8m2!3d55.6474859!4d37.5602516!16s%2Fg%2F11cp7p1gzw!19sChIJZ3mvHu9MtUYRA-fAJmP2lqY?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+SpbAuto+%D0%97%D0%B2%D1%91%D0%B7%D0%B4%D0%BD%D0%B0%D1%8F+%7C+%D0%A1%D0%A2%D0%9E,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D0%B5%D0%B9,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x4696251373911337:0x2322ec87a87b9806!8m2!3d59.8252196!4d30.3515847!16s%2Fg%2F11j1k7jt8g!19sChIJNxORcxMllkYRBph7qIfsIiM?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Автосервис ViaMotors, ул. Обручева, 52 стр. 13, Москва, 117342</t>
+          <t>Автосервис SpbAuto Звёздная | СТО, ремонт двигателей, кузовной ремонт, Московское ш., 13 корпус 8, Санкт-Петербург, 196158</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://viamotors.pro/</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>{'9165542389', '4957667187'}</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>{'contact@viamotors.pro'}</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/spbautovag/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Автосервис РПМ (MAZDA, LAND ROVER, JAGUAR)</t>
+          <t>СТО Автостолица в Московском районе ТО, замена масла, диагностика, ремонт, сход-развал</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A0%D0%9F%D0%9C+%28MAZDA,+LAND+ROVER,+JAGUAR%29/data=!4m7!3m6!1s0x46b54b5bac97b0a9:0x6a4e8ea52b16967f!8m2!3d55.6996498!4d37.6152267!16s%2Fg%2F1tdypg9m!19sChIJqbCXrFtLtUYRf5YWK6WOTmo?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D1%82%D0%BE%D0%BB%D0%B8%D1%86%D0%B0+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%BE%D0%BC+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD%D0%B5+%D0%A2%D0%9E,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D1%81%D1%85%D0%BE%D0%B4-%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB/data=!4m7!3m6!1s0x4696251a20019eb7:0x2116cb2b36c51c71!8m2!3d59.8254268!4d30.351842!16s%2Fg%2F11bzrqcr1r!19sChIJt54BIBollkYRcRzFNivLFiE?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Автосервис РПМ (MAZDA, LAND ROVER, JAGUAR), Загородное ш., 1, кор 2, строение 2, Москва, 117152</t>
+          <t>СТО Автостолица в Московском районе ТО, замена масла, диагностика, ремонт, сход-развал, Московское ш., 13 к 8, Санкт-Петербург, 196158</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.r-p-m.ru/</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>{'4957858101', '9661894554'}</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>{'AVTOSERVIS@R-P-M.RU', 'avtoservis@r-p-m.ru'}</t>
-        </is>
-      </c>
+          <t>https://autostolitsa.ru/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>СервисАвтоПлюс | Автосервис Кантемировская | Кузовной ремонт, замена масла, шиномонтаж</t>
+          <t>Бош Авто Сервис</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81%D0%90%D0%B2%D1%82%D0%BE%D0%9F%D0%BB%D1%8E%D1%81+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9A%D0%B0%D0%BD%D1%82%D0%B5%D0%BC%D0%B8%D1%80%D0%BE%D0%B2%D1%81%D0%BA%D0%B0%D1%8F+%7C+%D0%9A%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6/data=!4m7!3m6!1s0x46b535206d878a41:0x9f76b2fb486194e6!8m2!3d55.6428246!4d37.6398211!16s%2Fg%2F11j53c6721!19sChIJQYqHbSA1tUYR5pRhSPuydp8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%91%D0%BE%D1%88+%D0%90%D0%B2%D1%82%D0%BE+%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x4696301670d1bfe5:0x68960e33128b2d3!8m2!3d59.8902084!4d30.3444236!16s%2Fg%2F1tkbwx11!19sChIJ5b_RcBYwlkYR07IoMeNgiQY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>СервисАвтоПлюс | Автосервис Кантемировская | Кузовной ремонт, замена масла, шиномонтаж, Котляковская ул., 6с10, Москва, 115201</t>
+          <t>Бош Авто Сервис, Витебский пр., 1, Санкт-Петербург, 196105</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://serviceautoplus.ru/</t>
+          <t>http://z24.ru/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'9096442772'}</t>
+          <t>{'8122444045', '8124124233', '8125287770', '8122920072', '8123132424', '8124813126', '8122442767', '8122446585', '9216352424', '8122444727', '8122442959', '8122440724'}</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{'info@serviceautoplus.ru'}</t>
+          <t>{'info@z24.ru'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dynamic Drive | Автосервис Царицыно | Техцентр BMW, Mercedes-benz</t>
+          <t>BMW live service, автосервис</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Dynamic+Drive+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A6%D0%B0%D1%80%D0%B8%D1%86%D1%8B%D0%BD%D0%BE+%7C+%D0%A2%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80+BMW,+Mercedes-benz/data=!4m7!3m6!1s0x414ab3aa5a046c15:0x52fe26e978a37323!8m2!3d55.6321669!4d37.643442!16s%2Fg%2F11gd677kyj!19sChIJFWwEWqqzSkERI3OjeOkm_lI?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/BMW+live+service,+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x46963140c52c9d6b:0x88225ce43d939d19!8m2!3d59.8978696!4d30.3380659!16s%2Fg%2F11h0024z3w!19sChIJa50sxUAxlkYRGZ2TPeRcIog?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dynamic Drive | Автосервис Царицыно | Техцентр BMW, Mercedes-benz, Деловая ул., 11к1, Москва, 115477</t>
+          <t>BMW live service, автосервис, ул. Емельянова, 13, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://dynamic-drive-auto.ru/?utm_source=gmb</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+          <t>https://live-avto.ru/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>{'8122456053'}</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>{'ajax-loader@2x.gif', 'helpbmw@gmail.com'}</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>СТО-18</t>
+          <t>Автосервис Auto-V-Service | Ремонт двигателя, замена масла, шиномонтаж Звёздная</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E-18/data=!4m7!3m6!1s0x414ab35a684d35d7:0xfe5e91cecc03a9ea!8m2!3d55.6748633!4d37.6353247!16s%2Fg%2F11fx88ghmb!19sChIJ1zVNaFqzSkER6qkDzM6RXv4?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Auto-V-Service+%7C+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6+%D0%97%D0%B2%D1%91%D0%B7%D0%B4%D0%BD%D0%B0%D1%8F/data=!4m7!3m6!1s0x469625944e78a5f5:0x4b279aee203126e0!8m2!3d59.8250196!4d30.3543024!16s%2Fg%2F11h_srp6pz!19sChIJ9aV4TpQllkYR4CYxIO6aJ0s?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>СТО-18, 1-й Нагатинский пр-д, 15, стр.2, Москва, 115533</t>
+          <t>Автосервис Auto-V-Service | Ремонт двигателя, замена масла, шиномонтаж Звёздная, Московское ш., 13 корпус 7Б, Санкт-Петербург, 196158</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://sto-msk.ru/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+          <t>https://auto-v-service.ru/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>{'8122441212', ' 812 244 12 12'}</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>{'info@auto-v-service.ru'}</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Автосервис GM Club Нагатинская</t>
+          <t>Развал-Схождение Razvalexpert 3d</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+GM+Club+%D0%9D%D0%B0%D0%B3%D0%B0%D1%82%D0%B8%D0%BD%D1%81%D0%BA%D0%B0%D1%8F/data=!4m7!3m6!1s0x414ab3cf7b81bbc7:0xbf0129689075ca74!8m2!3d55.68316!4d37.661002!16s%2Fg%2F11j24379nr!19sChIJx7uBe8-zSkERdMp1kGgpAb8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB-%D0%A1%D1%85%D0%BE%D0%B6%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5+Razvalexpert+3d/data=!4m7!3m6!1s0x469630f9df2bf97d:0x5ee401885991fd71!8m2!3d59.9150156!4d30.3033838!16s%2Fg%2F11bxd7r77l!19sChIJffkr3_kwlkYRcf2RWYgB5F4?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Автосервис GM Club Нагатинская, Андропова пр-т, 22, стр. 2, Москва, 117105</t>
+          <t>Развал-Схождение Razvalexpert 3d, 13-я Красноармейская ул., 8а, Санкт-Петербург, 190103</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://gmclub.ru/</t>
+          <t>http://razval-shozhdeniye.ru/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>{'4951504173', '4951504135', '4951504183', '9037535323', '4951504172', '4951504103'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1976,243 +2016,243 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Автосервис Авто Стайл</t>
+          <t>СТО ГАЗ СПБ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE+%D0%A1%D1%82%D0%B0%D0%B9%D0%BB/data=!4m7!3m6!1s0x46b54e8dac6be82b:0x5c945511a65ca26a!8m2!3d55.7169103!4d37.4249877!16s%2Fg%2F11c48n1skt!19sChIJK-hrrI1OtUYRaqJcphFVlFw?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%93%D0%90%D0%97+%D0%A1%D0%9F%D0%91/data=!4m7!3m6!1s0x4696308a5a66ee21:0x27b4339ef1e342fa!8m2!3d59.902335!4d30.2907149!16s%2Fg%2F1tfg1rjv!19sChIJIe5mWoowlkYR-kLj8Z4ztCc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Автосервис Авто Стайл, с, Рябиновая ул., 9 строение 2, Москва, 121471</t>
+          <t>СТО ГАЗ СПБ, ул. Шкапина, 51, Санкт-Петербург, 198095</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://gag-avto.ru/o-nas/</t>
+          <t>https://sto-gaz.ru/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'8127777950', '8127777949'}</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'pkl@sto-gaz.ru'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Все-Автосервисы.Ру</t>
+          <t>Автосервис Magic Cars</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%92%D1%81%D0%B5-%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81%D1%8B.%D0%A0%D1%83/data=!4m7!3m6!1s0x46b54ddc73e19611:0xfb111543e5386105!8m2!3d55.663439!4d37.519173!16s%2Fg%2F11f710wg2y!19sChIJEZbhc9xNtUYRBWE45UMVEfs?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Magic+Cars/data=!4m7!3m6!1s0x46963a85a6c1298f:0x7544b95906d2299a!8m2!3d59.875396!4d30.2791382!16s%2Fg%2F11f03vl4dn!19sChIJjynBpoU6lkYRminSBlm5RHU?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Все-Автосервисы.Ру, ул. Новаторов, д.40, к.16, Москва, 119421</t>
+          <t>Автосервис Magic Cars, Автовская ул., 31П, Санкт-Петербург, 198152</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.vse-avtoservisy.ru/</t>
+          <t>http://magic-cars.pro/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>{'0979615575', '4951046330', '4951520274', '4951520335', '4993720943', '4950238795', '4993720278', '4993724473', '4951351494', '4951520238', '4951524926', '4951062847', '4951564445', '4951520246', '4950212469', '4951814159', '4951812020', '4950321068', '4950211622', '4951822894', '4951350810', '4992295155', '4993722035', '3947041468', '4951060879', '4951520234', '4950213141', '4951254621', '4992299286', '4992724810', '4992299146', '4951820927', '4951520326', '4951322656', '4993724870', '4954879139', '4953240808', '6233163885', '4951520235', '4951062863', '4950239656', '4993722664', '4951822916', '4955428844', '4951525678', '4950329799', '4993723991', '4951521884', '4952562597', '4950231962', '4951822563', '4951252785', '4950325067', '4950217798', '4951321957', '4992294202', '4951043968', '4950217339', '4951049690', '4951351154', '4950236254', '4954314226', '4951352378', '4951561508', '4993721087', '4951351506', '4951812782', '4951560504', '4950219698', '4950327577', '4992298581', '4992298618', '4992292781', '4951520270', '4992299179', '4952562973', '4953200855', '4951043150', '4951526400', '4993721623', '9006503628', '4993721622', '4993720209', '4993722843', '4951062874', '4992292782', '4951520279', '4950238792', '4951320940', '4950238794', '4951321187', '4993721097', '4993720839', '4951520278', '4992292546', '4950236951', '4992293323', '4992298456', '4951520281', '4953208111', '4950856309', '4951520331', '4951350138', '4951520316', '4993720991', '4992298705', '4954876526', '4951324152', '4950215054', '4951062865', '4993721631', '4953244521', '4951520264', '4951062854', '4951520276', '4950329903', '4951253687', '4951065714', '4951067576', '4954314045', '4951520262', '4951820312', '4992724843', '4950219783', '4951062883', '4951353462', '4954310152', '4950218524', '4951064286', '4952494649', '4951525111', '4950323385', '4992299780', '4957223340', '4951520314', '4950217648', '4950212990', '4950238790', '4950212827', '4951520325', '4992299715', '4951520285', '4951254589', '4951520269', '4951825712', '4992290760', '4951823404', '4951254617', '4950234896', '4951520324', '4951063127', '4950326804', '4951062862', '4951520242', '4950322087', '4950234783', '4951250347', '4959719466', '4992290764', '4951046362', '4951353593', '4950217397', '4951324809', '4992292134', '4950213195', '4950239625', '4951520315', '4951049575', '4950215610', '4955094343', '4951251859', '4992299781', '4951520271', '4992299773', '4993720626', '4951520286', '4951525704', '4951253428', '4951068360', '4950230616', '8939115573', '4950239670', '4992293085', '4951068974', '4951321948', '4951064861', '4951252642', '4951049806', '4951062860', '7707008512', '4992298589', '4953209406', '4993010059', '4950236434', '4952555972', '4951520273', '4951069136', '4950325316', '4950237180', '4992290407', '4952368608', '4954874317', '4951527873', '4993722814', '4992298721', '1205438885', '4951350578', '4950212919', '4992294610', '4951821331'}</t>
+          <t>{'9516555185', '8129064651', '9219064641'}</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'sto@magic-cars.pro'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Автосервис Глушак</t>
+          <t>Невский | Автосервис Улица Дыбенко | Развал - схождение, замена масла, СТО</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%93%D0%BB%D1%83%D1%88%D0%B0%D0%BA/data=!4m7!3m6!1s0x46b54ee481412fd9:0x415920fdeaa712a9!8m2!3d55.7235317!4d37.3726324!16s%2Fg%2F11h0y2wz7!19sChIJ2S9BgeROtUYRqRKn6v0gWUE?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9D%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A3%D0%BB%D0%B8%D1%86%D0%B0+%D0%94%D1%8B%D0%B1%D0%B5%D0%BD%D0%BA%D0%BE+%7C+%D0%A0%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB+-+%D1%81%D1%85%D0%BE%D0%B6%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D0%A1%D0%A2%D0%9E/data=!4m7!3m6!1s0x46962ef81f0279df:0xe26f167a0e6aece2!8m2!3d59.8925073!4d30.4935214!16s%2Fg%2F11xkr7x86!19sChIJ33kCH_gulkYR4uxqDnoWb-I?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Автосервис Глушак, село Немчиновка, ул. 4-я Запрудная, стр.9, Москва, Московская обл., 143025</t>
+          <t>Невский | Автосервис Улица Дыбенко | Развал - схождение, замена масла, СТО, проспект Большевиков, 36, корп. 2, литер А, 1 этаж, Санкт-Петербург, 193232</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://glushak.ru/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>{'4959213449', '9654023449'}</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>set()</t>
-        </is>
-      </c>
+          <t>https://nevskij-auto.ru/?utm_source=gmb</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AC-MSK, автосервис</t>
+          <t>Глушители-катализаторы, ЦТО</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/AC-MSK,+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x46b54d2503108b35:0xf3e039a591ae6289!8m2!3d55.6533267!4d37.5397824!16s%2Fg%2F11bzrhn9jn!19sChIJNYsQAyVNtUYRiWKukaU54PM?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%93%D0%BB%D1%83%D1%88%D0%B8%D1%82%D0%B5%D0%BB%D0%B8-%D0%BA%D0%B0%D1%82%D0%B0%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%D1%8B,+%D0%A6%D0%A2%D0%9E/data=!4m7!3m6!1s0x46963040b04b2b31:0x174e71318ffaa679!8m2!3d59.8988106!4d30.3408057!16s%2Fg%2F1tdxp30_!19sChIJMStLsEAwlkYReab6jzFxThc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AC-MSK, автосервис, ул. Обручева, 34/64а, Москва, 117342</t>
+          <t>Глушители-катализаторы, ЦТО, Воздухоплавательная ул., 13А, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://ac-msk.ru/</t>
+          <t>http://gutkat.ru/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>{'9163669350', '9167316513'}</t>
+          <t>{'8129718107', '8127151360', '8129885191', '8129883212'}</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'gutkat-spb@yandex.ru'}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Автосервис AV-MOTORS</t>
+          <t>Автосервис РемЗона - Невский</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+AV-MOTORS/data=!4m7!3m6!1s0x414ab3dd1e495555:0xf297b30c7aa8a175!8m2!3d55.615935!4d37.7164782!16s%2Fg%2F11g1f9kdwh!19sChIJVVVJHt2zSkERdaGoegyzl_I?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A0%D0%B5%D0%BC%D0%97%D0%BE%D0%BD%D0%B0+-+%D0%9D%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9/data=!4m7!3m6!1s0x46962fc5dd25a843:0x147cf8bf2550abe9!8m2!3d59.8914657!4d30.473056!16s%2Fg%2F11x9v7kzv!19sChIJQ6gl3cUvlkYR6atQJb_4fBQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Автосервис AV-MOTORS, Каширское ш., 61к3А, 3 этаж, Москва, 115409</t>
+          <t>Автосервис РемЗона - Невский, ул. Тельмана, 27, Санкт-Петербург, 193230</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://av-motors.net/</t>
+          <t>https://auto-nevsky.ru/?utm_source=gmap</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>{'9854101059'}</t>
+          <t>{'8129627273', '9214410205'}</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'av_motors777@mail.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ремонт Мерседес, Сервис Центр, Диагностика, Замена Масла в АКПП, ТО в Москве - Автосервис Mercedes</t>
+          <t>Ремонт Мерседес и Smart в СПб</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%9C%D0%B5%D1%80%D1%81%D0%B5%D0%B4%D0%B5%D1%81,+%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A6%D0%B5%D0%BD%D1%82%D1%80,+%D0%94%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0,+%D0%97%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%9C%D0%B0%D1%81%D0%BB%D0%B0+%D0%B2+%D0%90%D0%9A%D0%9F%D0%9F,+%D0%A2%D0%9E+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+-+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Mercedes/data=!4m7!3m6!1s0x46b536867dad8b6d:0x4ce43fca68c71cbf!8m2!3d55.681029!4d37.5377819!16s%2Fg%2F1tddqw8p!19sChIJbYutfYY2tUYRvxzHaMo_5Ew?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%9C%D0%B5%D1%80%D1%81%D0%B5%D0%B4%D0%B5%D1%81+%D0%B8+Smart+%D0%B2+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x46962fdd0735842b:0x1d9e4fc7ffb05929!8m2!3d59.8825729!4d30.3917073!16s%2Fg%2F11gjmt82d5!19sChIJK4Q1B90vlkYRKVmw_8dPnh0?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ремонт Мерседес, Сервис Центр, Диагностика, Замена Масла в АКПП, ТО в Москве - Автосервис Mercedes, Ленинский пр-т., 83Б, Москва, 119261</t>
+          <t>Ремонт Мерседес и Smart в СПб, Софийская ул., д. 8, корп.1, Санкт-Петербург, 192236</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.mbrio.ru/</t>
+          <t>https://remont-mercedes.spb.ru/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{' 900 123 45 67', '9856969751', ' 916 123 9901', ' 916 123 45 67', '4994901079'}</t>
+          <t>{'8122456500'}</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'mailbox@box.ru'}</t>
+          <t>{'info@remont-mercedes.spb.ru'}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Автосервис АвтоСпецЦентр АС</t>
+          <t>КСАвтоСервис</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%A1%D0%BF%D0%B5%D1%86%D0%A6%D0%B5%D0%BD%D1%82%D1%80+%D0%90%D0%A1/data=!4m7!3m6!1s0x46b54b235c38e455:0x880ef22636672fb5!8m2!3d55.72764!4d37.4062487!16s%2Fg%2F11lgxvvg8k!19sChIJVeQ4XCNLtUYRtS9nNibyDog?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9A%D0%A1%D0%90%D0%B2%D1%82%D0%BE%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x469630ec69f2a059:0x1685a4d5ad090559!8m2!3d59.913714!4d30.276359!16s%2Fg%2F1tdw6q5z!19sChIJWaDyaewwlkYRWQUJrdWkhRY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Автосервис АвтоСпецЦентр АС, ул. Горбунова. 2.46, Москва, 121596</t>
+          <t>КСАвтоСервис, Рижский пр., 37, Санкт-Петербург, 190020</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://avtospetstsentr.ru/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+          <t>http://ksautoservice.ru/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>set()</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>{'simple-line-icons@2.4.1', 'info@ksautoservice.ru'}</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Автосервис Лондон-Авто ЮГ</t>
+          <t>ЕвроАвто</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9B%D0%BE%D0%BD%D0%B4%D0%BE%D0%BD-%D0%90%D0%B2%D1%82%D0%BE+%D0%AE%D0%93/data=!4m7!3m6!1s0x46b54b5153d41a23:0x839fe148e7875f02!8m2!3d55.7058924!4d37.6383003!16s%2Fg%2F11j14vn9vx!19sChIJIxrUU1FLtUYRAl-H50jhn4M?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%95%D0%B2%D1%80%D0%BE%D0%90%D0%B2%D1%82%D0%BE/data=!4m7!3m6!1s0x46963027d1543911:0x530f6f5802abeb8b!8m2!3d59.894753!4d30.383543!16s%2Fg%2F1thz0b9q!19sChIJETlU0ScwlkYRi-urAlhvD1M?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Автосервис Лондон-Авто ЮГ, Автозаводская ул., 20 строение 8, Москва, 115280</t>
+          <t>ЕвроАвто, ул. Салова, 40, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://london-auto.ru/</t>
+          <t>https://euroauto.ru/?utm_source=google&amp;utm_medium=maps&amp;utm_campaign=sprav-salova</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>{'9261251367', '8007073357'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2224,59 +2264,59 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Автосервис Киа Хендай АвтоМиг (ЮВАО)</t>
+          <t>Zet-avto | Автосервис Невский район | Ремонт двигателя, сход-развал</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9A%D0%B8%D0%B0+%D0%A5%D0%B5%D0%BD%D0%B4%D0%B0%D0%B9+%D0%90%D0%B2%D1%82%D0%BE%D0%9C%D0%B8%D0%B3+%28%D0%AE%D0%92%D0%90%D0%9E%29/data=!4m7!3m6!1s0x46b54aa49a267b19:0x46a9a8be7ff26b10!8m2!3d55.7536888!4d37.6998367!16s%2Fg%2F11fyxf1qpv!19sChIJGXsmmqRKtUYREGvyf76oqUY?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Zet-avto+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9D%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD+%7C+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D1%81%D1%85%D0%BE%D0%B4-%D1%80%D0%B0%D0%B7%D0%B2%D0%B0%D0%BB/data=!4m7!3m6!1s0x46962e24a8f4f81f:0x4e61c3a40fd8ef6b!8m2!3d59.9127866!4d30.4371969!16s%2Fg%2F11b5ph_xs4!19sChIJH_j0qCQulkYRa-_YD6TDYU4?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Автосервис Киа Хендай АвтоМиг (ЮВАО), пр. Завода Серп и Молот, 8с1, Москва, 111250</t>
+          <t>Zet-avto | Автосервис Невский район | Ремонт двигателя, сход-развал, Дальневосточный пр., 7А, Санкт-Петербург, 193230</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://automig.services/</t>
+          <t>http://zet-avto.ru/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'8124567033', '8124567050', '8123207050'}</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'info@zet-avto.ru'}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>МОСАВТОРЕМОНТ - ремонт автомобилей круглосуточно, автосервис 24 часа в СВАО</t>
+          <t>Автосервис Racing Service</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9C%D0%9E%D0%A1%D0%90%D0%92%D0%A2%D0%9E%D0%A0%D0%95%D0%9C%D0%9E%D0%9D%D0%A2+-+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D0%B5%D0%B9+%D0%BA%D1%80%D1%83%D0%B3%D0%BB%D0%BE%D1%81%D1%83%D1%82%D0%BE%D1%87%D0%BD%D0%BE,+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+24+%D1%87%D0%B0%D1%81%D0%B0+%D0%B2+%D0%A1%D0%92%D0%90%D0%9E/data=!4m7!3m6!1s0x46b535ef1a79c61d:0x8d8c39f572dda2a4!8m2!3d55.802734!4d37.641837!16s%2Fg%2F1hd_z249g!19sChIJHcZ5Gu81tUYRpKLdcvU5jI0?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Racing+Service/data=!4m7!3m6!1s0x46962f8230f6daff:0x2f0be7b502a0d008!8m2!3d59.8524685!4d30.4285347!16s%2Fg%2F11b7qv37vd!19sChIJ_9r2MIIvlkYRCNCgArXnCy8?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>МОСАВТОРЕМОНТ - ремонт автомобилей круглосуточно, автосервис 24 часа в СВАО, Графский пер., 14Б, Москва, 129626</t>
+          <t>Автосервис Racing Service, 29, лит. 2Г, просп. Александровской Фермы, Санкт-Петербург, 192289</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://mosavtoremont.ru/</t>
+          <t>http://racingservice.spb.ru/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>{'4957687111'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2288,91 +2328,91 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Автосервис Драйвер в Москве | кузовной ремонт, автомойка, шиномонтаж</t>
+          <t>СТО MOTUL Сервис | автосервис на метро Ладожская</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%94%D1%80%D0%B0%D0%B9%D0%B2%D0%B5%D1%80+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+%7C+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0,+%D1%88%D0%B8%D0%BD%D0%BE%D0%BC%D0%BE%D0%BD%D1%82%D0%B0%D0%B6/data=!4m7!3m6!1s0x46b54ce625932adf:0x22435d1ce8318479!8m2!3d55.776878!4d37.7010072!16s%2Fg%2F1tfjzjqf!19sChIJ3yqTJeZMtUYReYQx6BxdQyI?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+MOTUL+%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%7C+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%BD%D0%B0+%D0%BC%D0%B5%D1%82%D1%80%D0%BE+%D0%9B%D0%B0%D0%B4%D0%BE%D0%B6%D1%81%D0%BA%D0%B0%D1%8F/data=!4m7!3m6!1s0x46962f49cb6cd997:0x84b2c29c51e3f412!8m2!3d59.928525!4d30.450344!16s%2Fg%2F11jghpchxt!19sChIJl9lsy0kvlkYREvTjUZzCsoQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Автосервис Драйвер в Москве | кузовной ремонт, автомойка, шиномонтаж, Рубцовская наб., 3 с.17, Москва, 117335</t>
+          <t>СТО MOTUL Сервис | автосервис на метро Ладожская, ул. Ванеева, 10, Санкт-Петербург, 193318</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.drivercentr.ru/</t>
+          <t>https://motulservice.spb.ru/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>{'4994551079'}</t>
+          <t>{'9692003995', '9692003935', ' 969 200 39 95', ' 969 200 39 35'}</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'motulservice.spb@ya.ru', 'info@ksautoservice.ru'}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Автосервис Id-Auto</t>
+          <t>АВТОСЕРВИС СПБ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Id-Auto/data=!4m7!3m6!1s0x46b537c05e3add83:0x31dc0cfefcf1389d!8m2!3d55.8192367!4d37.6203689!16s%2Fg%2F11cmh8plfk!19sChIJg906XsA3tUYRnTjx_P4M3DE?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%92%D0%A2%D0%9E%D0%A1%D0%95%D0%A0%D0%92%D0%98%D0%A1+%D0%A1%D0%9F%D0%91/data=!4m7!3m6!1s0x46962e4627115555:0xbc655cc99ce568c9!8m2!3d59.9012134!4d30.4579848!16s%2Fg%2F11nh8nx5jg!19sChIJVVURJ0YulkYRyWjlnMlcZbw?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Автосервис Id-Auto, ул. Академика Королева, Москва, 129515</t>
+          <t>АВТОСЕРВИС СПБ, Дальневосточный пр., 13, Санкт-Петербург, 193230</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://id-auto.net/</t>
+          <t>http://avtoservis-v-spb.ru/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>{'4956492208', '9267090747'}</t>
+          <t>{'8126045007'}</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'4956496626@mail.ru', 'id-lab@mail.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Оживляющий гараж | Автосервис Ауди Фольксваген Шкода Сокольники | Ремонт двигателя, замена масла, ремонт подвески</t>
+          <t>Шеви Плюс техцентр GM - Cadillac, Chevrolet, Hummer, GMC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9E%D0%B6%D0%B8%D0%B2%D0%BB%D1%8F%D1%8E%D1%89%D0%B8%D0%B9+%D0%B3%D0%B0%D1%80%D0%B0%D0%B6+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D1%83%D0%B4%D0%B8+%D0%A4%D0%BE%D0%BB%D1%8C%D0%BA%D1%81%D0%B2%D0%B0%D0%B3%D0%B5%D0%BD+%D0%A8%D0%BA%D0%BE%D0%B4%D0%B0+%D0%A1%D0%BE%D0%BA%D0%BE%D0%BB%D1%8C%D0%BD%D0%B8%D0%BA%D0%B8+%7C+%D0%A0%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BC%D0%B0%D1%81%D0%BB%D0%B0,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%BF%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8/data=!4m7!3m6!1s0x46b53604fd45372f:0xf095e8f18f95a52d!8m2!3d55.8147354!4d37.6867189!16s%2Fg%2F11hcw4pzrk!19sChIJLzdF_QQ2tUYRLaWVj_HolfA?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A8%D0%B5%D0%B2%D0%B8+%D0%9F%D0%BB%D1%8E%D1%81+%D1%82%D0%B5%D1%85%D1%86%D0%B5%D0%BD%D1%82%D1%80+GM+-+Cadillac,+Chevrolet,+Hummer,+GMC/data=!4m7!3m6!1s0x4696301251c438c9:0x5618beb28cb2c9cd!8m2!3d59.8889821!4d30.3255074!16s%2Fg%2F11crzxnjmf!19sChIJyTjEURIwlkYRzcmyjLK-GFY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Оживляющий гараж | Автосервис Ауди Фольксваген Шкода Сокольники | Ремонт двигателя, замена масла, ремонт подвески, Краснобогатырская ул., 2с30, Москва, 127254</t>
+          <t>Шеви Плюс техцентр GM - Cadillac, Chevrolet, Hummer, GMC, Заставская ул., 15, литера Д, Санкт-Петербург, 196006</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://ozhivlyayuschij-garazh-audi-shkoda-folksvagen.ru/avtoservis_ozhivlyayuschij_garazh_audi_folksvagen_shkoda/?utm_source=gmb</t>
+          <t>http://www.cheviplus.ru/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>{'9662969881'}</t>
+          <t>{'9672823343', '9218854344', '9280382223', '9282724222', '4957308272', '8007707773', '9032826898', '9219650442', '9166862323'}</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2384,283 +2424,275 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Автосервис «Team-Garage»</t>
+          <t>СТО КорАвто | Замена колодок, замена ГРМ, диагностика ДВС Московский район</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%C2%ABTeam-Garage%C2%BB/data=!4m7!3m6!1s0x46b54bdf609b6db9:0x39593d2019e67301!8m2!3d55.7579061!4d37.5289543!16s%2Fg%2F11b76gjzvr!19sChIJuW2bYN9LtUYRAXPmGSA9WTk?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%A2%D0%9E+%D0%9A%D0%BE%D1%80%D0%90%D0%B2%D1%82%D0%BE+%7C+%D0%97%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%BA%D0%BE%D0%BB%D0%BE%D0%B4%D0%BE%D0%BA,+%D0%B7%D0%B0%D0%BC%D0%B5%D0%BD%D0%B0+%D0%93%D0%A0%D0%9C,+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0+%D0%94%D0%92%D0%A1+%D0%9C%D0%BE%D1%81%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9+%D1%80%D0%B0%D0%B9%D0%BE%D0%BD/data=!4m7!3m6!1s0x46963040c45bbc6b:0xd87c09d1b8bda03c!8m2!3d59.8988786!4d30.3383504!16s%2Fg%2F11bzrj_ctq!19sChIJa7xbxEAwlkYRPKC9uNEJfNg?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Автосервис «Team-Garage», ул. Ермакова Роща, 7ас1, Москва, 123290</t>
+          <t>СТО КорАвто | Замена колодок, замена ГРМ, диагностика ДВС Московский район, Лиговский пр., 246, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://team-garage.ru/</t>
+          <t>http://korauto.spb.ru/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'8122425625', '9902095522', '5267821711', '8123809515', '8126556162', '8127028702', '9533727609', '8126060640', '8124612969'}</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'fancybox_loading@2x.gif'}</t>
+          <t>{'shatelena_korauto@mail.ru', 'savushkina_korauto@mail.ru', 'ligsalekorauto@mail.ru', 'nopsale-korauto.spb@mail.ru', 'kolpino-korauto@mail.ru', 'info@korauto.spb.ru'}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Авто-Планета | Автосервис, ремонт двигателя Беломорская</t>
+          <t>Автосервис СТО+</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE-%D0%9F%D0%BB%D0%B0%D0%BD%D0%B5%D1%82%D0%B0+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81,+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%B2%D0%B8%D0%B3%D0%B0%D1%82%D0%B5%D0%BB%D1%8F+%D0%91%D0%B5%D0%BB%D0%BE%D0%BC%D0%BE%D1%80%D1%81%D0%BA%D0%B0%D1%8F/data=!4m7!3m6!1s0x46b538107597abe9:0xd47d277467388511!8m2!3d55.8662231!4d37.4829526!16s%2Fg%2F11c2j9y8th!19sChIJ6auXdRA4tUYREYU4Z3QnfdQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A1%D0%A2%D0%9E%2B/data=!4m7!3m6!1s0x4696306d3cb27615:0x96fe57cf2de4d56a!8m2!3d59.886779!4d30.324183!16s%2Fg%2F11rk24k6l8!19sChIJFXayPG0wlkYRatXkLc9X_pY?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Авто-Планета | Автосервис, ремонт двигателя Беломорская, Беломорская ул., 40 ст2, Москва, 125445</t>
+          <t>Автосервис СТО+, ул. Коли Томчака, 19, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://avtoplaneta.com/</t>
+          <t>http://autostoplus.ru/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'9672818600', '4954551555'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'service@avtoplaneta.com', 'avtoplaneta-1@mail.ru'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Автосервис Хонда 9000RpM</t>
+          <t>JOKER AUTO - Автосервис</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A5%D0%BE%D0%BD%D0%B4%D0%B0+9000RpM/data=!4m7!3m6!1s0x46b537de59db388b:0x1f33c2f16604763!8m2!3d55.7585719!4d37.5305797!16s%2Fg%2F1tdvs_7j!19sChIJizjbWd43tUYRY0dgFi888wE?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/JOKER+AUTO+-+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x46963a4c936fad9b:0xd704fb7fc4b727c!8m2!3d59.8541817!4d30.1983904!16s%2Fg%2F11bxdy26hq!19sChIJm61vk0w6lkYRfHJL_LdPcA0?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Автосервис Хонда 9000RpM, улица Ермакова Роща, 7а. 1, 2 этаж, Москва, 123290</t>
+          <t>JOKER AUTO - Автосервис, Брестский б-р, 9А, Санкт-Петербург, 198330</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://9000rpm.ru/</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>{'4951201704', '4951201720', ' 495 120 42 21', '4951204221'}</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>set()</t>
-        </is>
-      </c>
+          <t>http://jokerauto.ru/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот</t>
+          <t>Автоцентр на белградской</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BF%D0%B8%D0%BB%D0%BE%D1%82/data=!4m7!3m6!1s0x414ab5d38d59f4e5:0x6f09864bd19e1ce0!8m2!3d55.7028665!4d37.7504811!16s%2Fg%2F11r6sk7cfy!19sChIJ5fRZjdO1SkER4Bye0UuGCW8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%86%D0%B5%D0%BD%D1%82%D1%80+%D0%BD%D0%B0+%D0%B1%D0%B5%D0%BB%D0%B3%D1%80%D0%B0%D0%B4%D1%81%D0%BA%D0%BE%D0%B9/data=!4m7!3m6!1s0x469631084edcbf01:0x533ad5cddb1ca381!8m2!3d59.8760218!4d30.3539118!16s%2Fg%2F11j22t7pm1!19sChIJAb_cTggxlkYRgaMc283VOlM?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот, Москва Волжский бульвар 114а, квартал, вл1а, Москва, 109462</t>
+          <t>Автоцентр на белградской, Белградская ул., 1А,Санкт-Петербург,196105, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://xn----8sbgaldwc9aoxegedf0fwd.xn--p1ai/?utm_campaign=geo&amp;utm_medium=cpc&amp;utm_source=pinbox#%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81</t>
+          <t>http://sto-78.ru/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>{'4954775549', '4954775119', '4951616051', '4952600960', '4952601012', '4954773368', '4956625902', '4954779617', '4951299910', '4951508009', '4954779610', '4957441137', '4958460014', '4952150139', '4956665658', '4958468006', '4954773361', '9851662484', '4955405311', '4955454478', '9096243589', '4951201235', '4954775103', '4956608320', '4955131302', '4956461136', '4951505762', '4956779507', '4954775384', '4951201521', '4951518970', '4952601076', '4952121385', '4954773385', '4952121322', '4954773382', '4957887797', '4958460027', '4954886625', '4958592105', '4954775037', '4956665649', '4957894910', '9256095556', '4954776678'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'vn111@list.ru', 'rabota@autopilot-sto.ru', 'bootstrap@5.2.1'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот</t>
+          <t>Икар на пр. Маршала Жукова 21 а</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D0%BF%D0%B8%D0%BB%D0%BE%D1%82/data=!4m7!3m6!1s0x414ab566a38101b9:0x15b5057f65aad38a!8m2!3d55.6691229!4d37.7326032!16s%2Fg%2F11h3l3ly7p!19sChIJuQGBo2a1SkERitOqZX8FtRU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%98%D0%BA%D0%B0%D1%80+%D0%BD%D0%B0+%D0%BF%D1%80.+%D0%9C%D0%B0%D1%80%D1%88%D0%B0%D0%BB%D0%B0+%D0%96%D1%83%D0%BA%D0%BE%D0%B2%D0%B0+21+%D0%B0/data=!4m7!3m6!1s0x46963a5ecc0e6529:0x7d02a80bffd69c1b!8m2!3d59.8628381!4d30.232165!16s%2Fg%2F1tgjjz3c!19sChIJKWUOzF46lkYRG5zW_wuoAn0?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Автосервис Автопилот, пр. Егорьевский, 35 ст11, Москва, 109382</t>
+          <t>Икар на пр. Маршала Жукова 21 а, пр. Маршала Жукова, 21а, Санкт-Петербург, 198332</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://xn----8sbgaldwc9aoxegedf0fwd.xn--p1ai/?utm_source=pinbox&amp;utm_medium=cpc&amp;utm_campaign=geo#%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81</t>
+          <t>http://www.ikar100.ru/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>{'4954775549', '4954775119', '4951616051', '4952600960', '4952601012', '4954773368', '4956625902', '4954779617', '4951299910', '4951508009', '4954779610', '4957441137', '4958460014', '4952150139', '4956665658', '4958468006', '4954773361', '9851662484', '4955405311', '4955454478', '9096243589', '4951201235', '4954775103', '4956608320', '4955131302', '4956461136', '4951505762', '4956779507', '4954775384', '4951201521', '4951518970', '4952601076', '4952121385', '4954773385', '4952121322', '4954773382', '4957887797', '4958460027', '4954886625', '4958592105', '4954775037', '4956665649', '4957894910', '9256095556', '4954776678'}</t>
+          <t>{'8126439928', '8126439930'}</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{'vn111@list.ru', 'rabota@autopilot-sto.ru', 'bootstrap@5.2.1'}</t>
+          <t>{'ikar100@mail.ru'}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ДжапАвто</t>
+          <t>Автосервис МаксБОКС на Васильевском | полный цикл работ, диагностика</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%94%D0%B6%D0%B0%D0%BF%D0%90%D0%B2%D1%82%D0%BE/data=!4m7!3m6!1s0x414ab5be72e32dc7:0xa09bc6697a36e6ff!8m2!3d55.7315057!4d37.6419789!16s%2Fg%2F1th1slnn!19sChIJxy3jcr61SkER_-Y2emnGm6A?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%B0%D0%BA%D1%81%D0%91%D0%9E%D0%9A%D0%A1+%D0%BD%D0%B0+%D0%92%D0%B0%D1%81%D0%B8%D0%BB%D1%8C%D0%B5%D0%B2%D1%81%D0%BA%D0%BE%D0%BC+%7C+%D0%BF%D0%BE%D0%BB%D0%BD%D1%8B%D0%B9+%D1%86%D0%B8%D0%BA%D0%BB+%D1%80%D0%B0%D0%B1%D0%BE%D1%82,+%D0%B4%D0%B8%D0%B0%D0%B3%D0%BD%D0%BE%D1%81%D1%82%D0%B8%D0%BA%D0%B0/data=!4m7!3m6!1s0x4696253d3d2f093f:0x64f5b7cdf100ae61!8m2!3d59.9279707!4d30.2513492!16s%2Fg%2F1w96fdl1!19sChIJPwkvPT0llkYRYa4A8c239WQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ДжапАвто, Шлюзовая наб., 2/1 стр 6, Москва, 115054</t>
+          <t>Автосервис МаксБОКС на Васильевском | полный цикл работ, диагностика, Детская ул., 10, 1 этаж, Санкт-Петербург, 196158</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.japauto.ru/</t>
+          <t>http://www.mbxauto.ru/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>{'4957724098', '4957746925', '4957837520', '4957745411'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'info@japauto.ru', 'parts@japauto.ru', 'mail@japauto.ru', 'service@japauto.ru'}</t>
+          <t>{'info@MBXauto.ru', 'info@mbxauto.ru'}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд</t>
+          <t>France-Piter СТО, Автосервис Звездная</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+-+%D0%92%D0%B8%D0%BB%D0%B3%D1%83%D0%B4/data=!4m7!3m6!1s0x46b537a996225d8f:0x76d18055e5292c6d!8m2!3d55.8569525!4d37.5803306!16s%2Fg%2F11crzr8n9t!19sChIJj10ilqk3tUYRbSwp5VWA0XY?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/France-Piter+%D0%A1%D0%A2%D0%9E,+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%97%D0%B2%D0%B5%D0%B7%D0%B4%D0%BD%D0%B0%D1%8F/data=!4m7!3m6!1s0x4696251a1c3c1e71:0xab3de8e498a32c86!8m2!3d59.830231!4d30.349337!16s%2Fg%2F11f04k19mg!19sChIJcR48HBollkYRhiyjmOToPas?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд, г. Москва, Алтуфьевское ш, дом 27, корп. А, стр. 2, Москва, 127562</t>
+          <t>France-Piter СТО, Автосервис Звездная, Московское ш., 42 Корпус 2, Санкт-Петербург, 196158</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://wilgood.ru/?utm_source=google&amp;utm_medium=maps&amp;utm_campaign=altufyevo-1</t>
+          <t>https://france-piter.ru/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>{'8003022308', '4635732174', '8003017218', '4951629174', '9057571523'}</t>
+          <t>{'9602679294', '8129055445'}</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'vanilla-lazyload@14.0.0'}</t>
+          <t>{'pro@france-piter.ru'}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Кволити Моторс | Автосервис Ховрино | Кузовной ремонт, заправка кондиционера, автомойка</t>
+          <t>Автосервис</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%9A%D0%B2%D0%BE%D0%BB%D0%B8%D1%82%D0%B8+%D0%9C%D0%BE%D1%82%D0%BE%D1%80%D1%81+%7C+%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A5%D0%BE%D0%B2%D1%80%D0%B8%D0%BD%D0%BE+%7C+%D0%9A%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82,+%D0%B7%D0%B0%D0%BF%D1%80%D0%B0%D0%B2%D0%BA%D0%B0+%D0%BA%D0%BE%D0%BD%D0%B4%D0%B8%D1%86%D0%B8%D0%BE%D0%BD%D0%B5%D1%80%D0%B0,+%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B9%D0%BA%D0%B0/data=!4m7!3m6!1s0x46b537959601560b:0x6f263e7b88890aed!8m2!3d55.8921039!4d37.5241249!16s%2Fg%2F1v6wm_3s!19sChIJC1YBlpU3tUYR7QqJiHs-Jm8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x469630402921129f:0x1d6d17be1950f558!8m2!3d59.895249!4d30.3329279!16s%2Fg%2F1v26ks7d!19sChIJnxIhKUAwlkYRWPVQGb4XbR0?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Кволити Моторс | Автосервис Ховрино | Кузовной ремонт, заправка кондиционера, автомойка, Лобненская улица, 17с1 въезд со стороны Ижорского проезда, Москва, 125438</t>
+          <t>Автосервис, Лиговский пр., 256, Санкт-Петербург, 196084</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://kvoliti-motors.ru/avtoservis_kvoliti_motors_na_lobnenskoj/?utm_source=gmb</t>
+          <t>https://avtoservispiter.ru/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>{'9268893220'}</t>
+          <t>{'8124540340', '8129120152', '8123187375', '9219120152', '9312882640'}</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'9120152@mail.ru', '3804574@mail.ru', 'swiper@9.1.1'}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Автосервис PA-service</t>
+          <t>MOTOR CAR'S SPB</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+PA-service/data=!4m7!3m6!1s0x46b5381596fd3b11:0x29ae2a68649df05c!8m2!3d55.870609!4d37.4723619!16s%2Fg%2F11b806_620!19sChIJETv9lhU4tUYRXPCdZGgqrik?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/MOTOR+CAR%27S+SPB/data=!4m7!3m6!1s0x46963a4f183b7389:0xb89aa0cdc69c3696!8m2!3d59.8608101!4d30.2060909!16s%2Fg%2F11h9w69n4w!19sChIJiXM7GE86lkYRljacxs2gmrg?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Автосервис PA-service, Смольная ул., 46, Москва, 125445</t>
+          <t>MOTOR CAR'S SPB, ул. Маршала Казакова, 29А, стр, 1, Санкт-Петербург, 198332</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://pa-service.ru/</t>
+          <t>https://vk.com/motorcarsspb</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>{'9263094646'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2672,192 +2704,304 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FIT SERVICE</t>
+          <t>Автосервис Грудь колесом</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/FIT+SERVICE/data=!4m7!3m6!1s0x414aadb7ec2c0b2b:0x40d639ed91bdfb4!8m2!3d55.56395!4d37.5784061!16s%2Fg%2F11ckqs9jt2!19sChIJKwss7LetSkERtN8b2Z5jDQQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%93%D1%80%D1%83%D0%B4%D1%8C+%D0%BA%D0%BE%D0%BB%D0%B5%D1%81%D0%BE%D0%BC/data=!4m7!3m6!1s0x4696310a1ac2f325:0xaaba5bfdc52429ed!8m2!3d59.9215262!4d30.3619251!16s%2Fg%2F11rnbmyh1p!19sChIJJfPCGgoxlkYR7Skkxf1buqo?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FIT SERVICE, ул. Феодосийская, 1, корпус 11, Москва, 117216</t>
+          <t>Автосервис Грудь колесом, Лиговский проспект, д. 60-62, литера АБ, въезд с, ул. Черняховского, Санкт-Петербург, 191040</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://moskva.fitauto.ru/?utm_source=on&amp;utm_medium=googlemaps&amp;utm_campaign=sait</t>
+          <t>https://grudkolesom.ru/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>{'8007008056', '4994029112', '9059458308'}</t>
+          <t>{'9643424989', '9006404522', '8124219999', '9531541018'}</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'skkr@fitauto.ru', 'Rating@Mail.ru'}</t>
+          <t>{'sto@grudkolesom.ru', 'director@grudkolesom.ru'}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд</t>
+          <t>Автосервис</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+-+%D0%92%D0%B8%D0%BB%D0%B3%D1%83%D0%B4/data=!4m7!3m6!1s0x46b53988113756ed:0xca9ae31d39111b0!8m2!3d55.8897976!4d37.5375871!16s%2Fg%2F11h3g3lb1r!19sChIJ7VY3EYg5tUYRsBGR0zGuqQw?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81/data=!4m7!3m6!1s0x46963027d797d635:0xd54c88cdaeb78646!8m2!3d59.894753!4d30.383543!16s%2Fg%2F1q675ddhv!19sChIJNdaX1ycwlkYRRoa3rs2ITNU?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд, ул. Лобненская, д. 4А, Москва, 127644</t>
+          <t>Автосервис, ул. Салова, 40, Санкт-Петербург, 192102</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://wilgood.ru/?utm_source=google&amp;utm_medium=maps&amp;utm_campaign=lobnenskaya</t>
+          <t>http://euroauto.ru/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>{'8003022308', '4635732174', '8003017218', '4951629174', '9057571523'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'vanilla-lazyload@14.0.0'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Автосервис Red Hot Service</t>
+          <t>Автосервис VOLVO в СПб</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+Red+Hot+Service/data=!4m7!3m6!1s0x414ab51322393711:0xbf06874e99c03177!8m2!3d55.7202568!4d37.7479667!16s%2Fg%2F11b7j_zxnz!19sChIJETc5IhO1SkERdzHAmU6HBr8?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+VOLVO+%D0%B2+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x46962e3c6c555555:0x27e0d0d30fee0c2c!8m2!3d59.91186!4d30.4464636!16s%2Fg%2F11j5pvync3!19sChIJVVVVbDwulkYRLAzuD9PQ4Cc?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Автосервис Red Hot Service, Стахановская ул., 24/32Ас1, Москва, 109518</t>
+          <t>Автосервис VOLVO в СПб, ул. Коллонтай, 3, Санкт-Петербург, 193318</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.rhservice.ru/</t>
+          <t>http://volvo-mag.ru/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>{'9160808082'}</t>
+          <t>{'9213864965'}</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'hapil@rhservice.ru'}</t>
+          <t>{'contact@example.com', 'info@example.com', 'skulpt-avto@yandex.ru'}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд</t>
+          <t>Автосервис Автоцентр по ремонту в СПб</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%B2+%D0%9C%D0%BE%D1%81%D0%BA%D0%B2%D0%B5+-+%D0%92%D0%B8%D0%BB%D0%B3%D1%83%D0%B4/data=!4m7!3m6!1s0x46b5356d47ff59dd:0x850ba117e7a649bc!8m2!3d55.7845136!4d37.7140268!16s%2Fg%2F11c1q7j94r!19sChIJ3Vn_R201tUYRvEmm5xehC4U?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%90%D0%B2%D1%82%D0%BE%D1%86%D0%B5%D0%BD%D1%82%D1%80+%D0%BF%D0%BE+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82%D1%83+%D0%B2+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x46962e0bc3b95555:0xbaf8971466b2d83c!8m2!3d59.9304451!4d30.4774214!16s%2Fg%2F11sfgz2h4b!19sChIJVVW5wwsulkYRPNiyZhSX-Lo?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Автосервис в Москве - Вилгуд, Семеновский пер., 4А, Москва, 107023</t>
+          <t>Автосервис Автоцентр по ремонту в СПб, ул. Кржижановского, 11, Санкт-Петербург, 193312</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://wilgood.ru/?utm_source=google&amp;utm_medium=maps&amp;utm_campaign=semenovskaya</t>
+          <t>http://uk3.ru/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>{'8003022308', '4635732174', '8003017218', '4951629174', '9057571523'}</t>
+          <t>{'9533569521'}</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{'vanilla-lazyload@14.0.0'}</t>
+          <t>set()</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Автосервис Мир Рено</t>
+          <t>Дилижанс СТО</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%9C%D0%B8%D1%80+%D0%A0%D0%B5%D0%BD%D0%BE/data=!4m7!3m6!1s0x414ab57313a70845:0x7f93d83bd92a14f6!8m2!3d55.723831!4d37.7328401!16s%2Fg%2F11csccsh31!19sChIJRQinE3O1SkER9hQq2TvYk38?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%94%D0%B8%D0%BB%D0%B8%D0%B6%D0%B0%D0%BD%D1%81+%D0%A1%D0%A2%D0%9E/data=!4m7!3m6!1s0x46962fd04d9e7d3d:0xde63cc9217d61bc3!8m2!3d59.892878!4d30.407176!16s%2Fg%2F1thxjqwm!19sChIJPX2eTdAvlkYRwxvWF5LMY94?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Автосервис Мир Рено, 2-й Грайвороновский пр-д, 4с.3, Москва, 109518</t>
+          <t>Дилижанс СТО, пр. Елизарова, 34, Санкт-Петербург, 192148</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.mirrenault.ru/</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>{'9266050550', '4957725141'}</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>{'info@mirrenault.ru'}</t>
-        </is>
-      </c>
+          <t>https://dilauto.ru/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Автосервис G-car Огородный проезд, Автозапчасти, плановое ТО, кузовной ремонт</t>
+          <t>Порше Сервис СПб</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D0%90%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+G-car+%D0%9E%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D0%BD%D1%8B%D0%B9+%D0%BF%D1%80%D0%BE%D0%B5%D0%B7%D0%B4,+%D0%90%D0%B2%D1%82%D0%BE%D0%B7%D0%B0%D0%BF%D1%87%D0%B0%D1%81%D1%82%D0%B8,+%D0%BF%D0%BB%D0%B0%D0%BD%D0%BE%D0%B2%D0%BE%D0%B5+%D0%A2%D0%9E,+%D0%BA%D1%83%D0%B7%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82/data=!4m7!3m6!1s0x46b53605657b2125:0xec821ac283115984!8m2!3d55.8115025!4d37.6047385!16s%2Fg%2F1tslhd62!19sChIJJSF7ZQU2tUYRhFkRg8Iaguw?authuser=0&amp;hl=ru&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D0%9F%D0%BE%D1%80%D1%88%D0%B5+%D0%A1%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D0%A1%D0%9F%D0%B1/data=!4m7!3m6!1s0x4696316f4704d051:0xdfa457cc17a020db!8m2!3d59.9279707!4d30.2513492!16s%2Fg%2F11fm4l1_17!19sChIJUdAER28xlkYR2yCgF8xXpN8?authuser=0&amp;hl=ru&amp;rclk=1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Автосервис G-car Огородный проезд, Автозапчасти, плановое ТО, кузовной ремонт, Огородный пр-д, 9, Москва, 127254</t>
+          <t>Порше Сервис СПб, Детская ул., 10, Санкт-Петербург, 199106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://g-car.ru/</t>
+          <t>https://porscheservicespb.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>{'4956468300'}</t>
+          <t>{' 911 922 61 24'}</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'info@g-car.ru', 'zakaz@g-car.ru'}</t>
+          <t>set()</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>LR service SPB</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LR+service+SPB/data=!4m7!3m6!1s0x4696306d60c81f3b:0x74ecaaae626ac621!8m2!3d59.8854293!4d30.3216171!16s%2Fg%2F1yh9vkw4w!19sChIJOx_IYG0wlkYRIcZqYq6q7HQ?authuser=0&amp;hl=ru&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LR service SPB, Московский пр-т., 148д к1, Санкт-Петербург, 196006</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.lrservicespb.ru/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Сам-Автомастер - автосервис самообслуживания</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%D0%A1%D0%B0%D0%BC-%D0%90%D0%B2%D1%82%D0%BE%D0%BC%D0%B0%D1%81%D1%82%D0%B5%D1%80+-+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81+%D1%81%D0%B0%D0%BC%D0%BE%D0%BE%D0%B1%D1%81%D0%BB%D1%83%D0%B6%D0%B8%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/data=!4m7!3m6!1s0x46963a93e1fb7ed3:0x393bba71b9adee15!8m2!3d59.8635693!4d30.280205!16s%2Fg%2F11cr_zy69t!19sChIJ03774ZM6lkYRFe6tuXG6Ozk?authuser=0&amp;hl=ru&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Сам-Автомастер - автосервис самообслуживания, А, Краснопутиловская ул., 65, Санкт-Петербург, 198152</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>http://samautomaster.ru/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>{'8122192464'}</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>{'admin@samautomaster.ru'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CAR-LIFE.PRO, сеть автосервисов</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CAR-LIFE.PRO,+%D1%81%D0%B5%D1%82%D1%8C+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81%D0%BE%D0%B2/data=!4m7!3m6!1s0x4696306cc1aa0539:0x65440ff00aab0484!8m2!3d59.88847!4d30.326158!16s%2Fg%2F11bzrpk8c4!19sChIJOQWqwWwwlkYRhASrCvAPRGU?authuser=0&amp;hl=ru&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CAR-LIFE.PRO, сеть автосервисов, Заставская ул., 15-а, Санкт-Петербург, 196084</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://car-life.pro/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>{'9818377772', '9818377773'}</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>{'car-life.pro@mail.ru'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Аларм, сеть автосервисных центров</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%D0%90%D0%BB%D0%B0%D1%80%D0%BC,+%D1%81%D0%B5%D1%82%D1%8C+%D0%B0%D0%B2%D1%82%D0%BE%D1%81%D0%B5%D1%80%D0%B2%D0%B8%D1%81%D0%BD%D1%8B%D1%85+%D1%86%D0%B5%D0%BD%D1%82%D1%80%D0%BE%D0%B2/data=!4m7!3m6!1s0x46963003ade3a0b7:0xfa3b71ad9978a638!8m2!3d59.873294!4d30.352411!16s%2Fg%2F12hn4mykf!19sChIJt6DjrQMwlkYROKZ4ma1xO_o?authuser=0&amp;hl=ru&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Аларм, сеть автосервисных центров, Кузнецовская ул., 60, Санкт-Петербург, 196105</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://airnet.ru/discount/avtomoyka-alarm</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>{'8124293939'}</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>set()</t>
         </is>
       </c>
     </row>
